--- a/GATEWAY/tarasoft/tarasoft_/45801/2.0/report-checklist.xlsx
+++ b/GATEWAY/tarasoft/tarasoft_/45801/2.0/report-checklist.xlsx
@@ -1436,123 +1436,63 @@
     <t>bf45ac519b7edf50086ba8e235adcbd7</t>
   </si>
   <si>
-    <t>07.28.00</t>
-  </si>
-  <si>
-    <t>17.01.00</t>
-  </si>
-  <si>
-    <t>18.54.00</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT08_KO</t>
   </si>
   <si>
     <t>ff5893859fee1ff1d9add993ffd99a08</t>
   </si>
   <si>
-    <t>07.54.00</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT09_KO</t>
   </si>
   <si>
-    <t>08.03.00</t>
-  </si>
-  <si>
     <t>6b97fb52545271717e74d3fa33dc5b2b</t>
   </si>
   <si>
-    <t>08.12.00</t>
-  </si>
-  <si>
     <t>1b0dfb9feecd9d1f6d05619780fdebb4</t>
   </si>
   <si>
-    <t>08.25.00</t>
-  </si>
-  <si>
     <t>238366544401a5af2f68a2924b72abb5</t>
   </si>
   <si>
-    <t>08.33.00</t>
-  </si>
-  <si>
     <t>2980f228441067222227d755cbf34877</t>
   </si>
   <si>
-    <t>08.39.00</t>
-  </si>
-  <si>
     <t>847a9f827cba82574887d87fd6ee3181</t>
   </si>
   <si>
-    <t>08.55.00</t>
-  </si>
-  <si>
     <t>c3a4b129aab8ecb19e18bc91caeb79b1</t>
   </si>
   <si>
-    <t>09.03.00</t>
-  </si>
-  <si>
     <t>cc08bf4b5b609cd6343ddf1fafdbe584</t>
   </si>
   <si>
-    <t>10.28.00</t>
-  </si>
-  <si>
     <t>582cfe372aaaba52a1d798a0ac601d2c</t>
   </si>
   <si>
-    <t>10.34.00</t>
-  </si>
-  <si>
     <t>8fe29cc3ec7e1f9ea69f4f55db36f7ef</t>
   </si>
   <si>
-    <t>10.39.00</t>
-  </si>
-  <si>
     <t>fed47ddcb943c6c14eba4b5624ce893c</t>
   </si>
   <si>
-    <t>10.47.00</t>
-  </si>
-  <si>
     <t>9c2c30dfe92ab64b131b003091e243fa</t>
   </si>
   <si>
-    <t>10.54.00</t>
-  </si>
-  <si>
     <t>4243077c7f2e640a36550f7838b03cd4</t>
   </si>
   <si>
-    <t>10.59.00</t>
-  </si>
-  <si>
     <t>ad29d3d46849277f7e7bc88816a310a5</t>
   </si>
   <si>
-    <t>11.04.00</t>
-  </si>
-  <si>
     <t>ddeb775ab5fb0e6ba2265fe5ce7b7021</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT27_KO</t>
   </si>
   <si>
-    <t>11.09.00</t>
-  </si>
-  <si>
     <t>ec8c474898bf854de2f2b718991fea3f</t>
   </si>
   <si>
-    <t>11.14.00</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT28_KO</t>
   </si>
   <si>
@@ -1562,9 +1502,6 @@
     <t>VALIDAZIONE_CDA2_RAD_CT25_OK</t>
   </si>
   <si>
-    <t>16.14.00</t>
-  </si>
-  <si>
     <t>9a56d9d564da1168781347d26c091dc5</t>
   </si>
   <si>
@@ -1574,120 +1511,63 @@
     <t>VALIDAZIONE_CDA2_RAD_CT26_OK</t>
   </si>
   <si>
-    <t>17.09.00</t>
-  </si>
-  <si>
     <t>3383d2f8fa6a422d67eaad9314253f10</t>
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.c7e3643747^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>05.56.00</t>
-  </si>
-  <si>
     <t>d5752852c2256166990db7f2300e0802</t>
   </si>
   <si>
-    <t>06.02.00</t>
-  </si>
-  <si>
     <t>2e5fe0a8a5dd0ccc0cbe676ea46fc6be</t>
   </si>
   <si>
-    <t>06.07.00</t>
-  </si>
-  <si>
     <t>62e77ae86bb600d57c68b3d0242743c9</t>
   </si>
   <si>
-    <t>06.12.00</t>
-  </si>
-  <si>
     <t>9e4533243aca85b5c482f8caca650c50</t>
   </si>
   <si>
-    <t>06.21.00</t>
-  </si>
-  <si>
     <t>575b07491762f0358e061ba738415070</t>
   </si>
   <si>
-    <t>06.29.00</t>
-  </si>
-  <si>
     <t>044b9ebd672cef670684353a0e58737e</t>
   </si>
   <si>
-    <t>06.35.00</t>
-  </si>
-  <si>
     <t>ca285b08f2cb0e73a3ed1062db4bcb6b</t>
   </si>
   <si>
-    <t>06.40.00</t>
-  </si>
-  <si>
     <t>b2f7b90077fdd78b46524e868149f832</t>
   </si>
   <si>
-    <t>06.46.00</t>
-  </si>
-  <si>
     <t>5541890fc29641380380878a89921dc1</t>
   </si>
   <si>
-    <t>06.50.00</t>
-  </si>
-  <si>
     <t>fbb71cd12c852d3f596c15bc557051c0</t>
   </si>
   <si>
-    <t>07.00.00</t>
-  </si>
-  <si>
     <t>4053f3a389432c418b05be2fb5e7e303</t>
   </si>
   <si>
-    <t>07.05.00</t>
-  </si>
-  <si>
     <t>74bf1964b244be0af2753fc5b4315c2e</t>
   </si>
   <si>
-    <t>07.10.00</t>
-  </si>
-  <si>
     <t>c1e1143094c73df32a9a336f369b0891</t>
   </si>
   <si>
-    <t>07.16.00</t>
-  </si>
-  <si>
     <t>4cb3162e4e6c8c8489e72c4b320a403c</t>
   </si>
   <si>
-    <t>07.22.00</t>
-  </si>
-  <si>
     <t>815620bdbf9e26999ad7e1a461fc5050</t>
   </si>
   <si>
-    <t>07.30.00</t>
-  </si>
-  <si>
     <t>5b7a5aad9ff65603786a49db2d916851</t>
   </si>
   <si>
-    <t>07.34.00</t>
-  </si>
-  <si>
     <t>4d09839b11a460642b547bd68e11a9e2</t>
   </si>
   <si>
-    <t>07.38.00</t>
-  </si>
-  <si>
     <t>90b18d2a0f6ddef1c545137c611cc1f2</t>
   </si>
   <si>
@@ -1763,21 +1643,12 @@
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
   </si>
   <si>
-    <t>10.00.00</t>
-  </si>
-  <si>
-    <t>10.05.00</t>
-  </si>
-  <si>
     <t>31,39,47,76,78,79,80,81,83,84,85,86,87,88,89,90,91,92,93,462,474</t>
   </si>
   <si>
     <t>32,40,48,152,154,155,156,159,160,161,162,163,164,165,166,167,168,169,461,468,475</t>
   </si>
   <si>
-    <t>09.18.00</t>
-  </si>
-  <si>
     <t>b0a671d964e6ce428906b636feb3c55a</t>
   </si>
   <si>
@@ -1787,9 +1658,6 @@
     <t>5753e48983833947e7689639090336e0</t>
   </si>
   <si>
-    <t>09.51.00</t>
-  </si>
-  <si>
     <t>5d0d1e438fd8d44b5252d8bcf01ca926</t>
   </si>
   <si>
@@ -1905,6 +1773,138 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.89636a2fe9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-09T08:18:25Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T15:14:21Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T16:09:06Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T04:56:38Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:02:14Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:07:52Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:12:31Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:21:02Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:29:27Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:35:40Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:40:08Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:46:03Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:50:16Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:00:54Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:05:54Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:10:46Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:16:05Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:22:16Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:30:18Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:34:02Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:38:57Z</t>
+  </si>
+  <si>
+    <t>2026-01-09T08:51:28Z</t>
+  </si>
+  <si>
+    <t>2026-01-08T10:26:05Z</t>
+  </si>
+  <si>
+    <t>2026-01-08T10:05:31Z</t>
+  </si>
+  <si>
+    <t>2025-12-26T16:01:45Z</t>
+  </si>
+  <si>
+    <t>2025-12-26T17:54:42Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T06:28:33Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T06:54:21Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T07:03:41Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T07:12:04Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T07:25:25Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T07:33:11Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T07:39:30Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T07:55:56Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T08:03:31Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:28:40Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:34:09Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:39:14Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:47:28Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:54:34Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:59:58Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T10:04:35Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T10:09:52Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T10:14:39Z</t>
   </si>
 </sst>
 </file>
@@ -4001,10 +4001,10 @@
   <dimension ref="A1:W731"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B170" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S193" sqref="S193"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4013,7 +4013,7 @@
     <col min="2" max="2" width="27.1796875" customWidth="1"/>
     <col min="3" max="3" width="13.1796875" customWidth="1"/>
     <col min="4" max="4" width="40.26953125" customWidth="1"/>
-    <col min="5" max="5" width="104.81640625" customWidth="1"/>
+    <col min="5" max="5" width="46.54296875" customWidth="1"/>
     <col min="6" max="7" width="33.1796875" customWidth="1"/>
     <col min="8" max="8" width="38.26953125" customWidth="1"/>
     <col min="9" max="9" width="143.36328125" bestFit="1" customWidth="1"/>
@@ -9314,7 +9314,7 @@
         <v>38</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="E145" s="41" t="s">
         <v>43</v>
@@ -9326,10 +9326,10 @@
         <v>472</v>
       </c>
       <c r="H145" s="35" t="s">
-        <v>473</v>
+        <v>430</v>
       </c>
       <c r="I145" s="40" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="J145" s="36" t="s">
         <v>60</v>
@@ -9353,7 +9353,7 @@
         <v>191</v>
       </c>
       <c r="S145" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T145" s="36" t="s">
         <v>189</v>
@@ -9375,7 +9375,7 @@
         <v>38</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="E146" s="41" t="s">
         <v>53</v>
@@ -9387,10 +9387,10 @@
         <v>472</v>
       </c>
       <c r="H146" s="35" t="s">
-        <v>474</v>
+        <v>431</v>
       </c>
       <c r="I146" s="40" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="J146" s="36" t="s">
         <v>60</v>
@@ -9414,7 +9414,7 @@
         <v>191</v>
       </c>
       <c r="S146" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T146" s="36" t="s">
         <v>189</v>
@@ -9436,7 +9436,7 @@
         <v>38</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="E147" s="41" t="s">
         <v>333</v>
@@ -9445,7 +9445,7 @@
         <v>46030</v>
       </c>
       <c r="G147" s="35" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="H147" s="35"/>
       <c r="I147" s="40"/>
@@ -9471,7 +9471,7 @@
         <v>191</v>
       </c>
       <c r="S147" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T147" s="36" t="s">
         <v>189</v>
@@ -9493,7 +9493,7 @@
         <v>38</v>
       </c>
       <c r="D148" s="33" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="E148" s="41" t="s">
         <v>332</v>
@@ -9502,13 +9502,13 @@
         <v>46018</v>
       </c>
       <c r="G148" s="35" t="s">
-        <v>401</v>
+        <v>473</v>
       </c>
       <c r="H148" s="35" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="I148" s="40" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="J148" s="36" t="s">
         <v>60</v>
@@ -9542,7 +9542,7 @@
         <v>38</v>
       </c>
       <c r="D149" s="33" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="E149" s="41" t="s">
         <v>332</v>
@@ -9551,13 +9551,13 @@
         <v>46018</v>
       </c>
       <c r="G149" s="35" t="s">
-        <v>405</v>
+        <v>474</v>
       </c>
       <c r="H149" s="35" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="I149" s="40" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="J149" s="36" t="s">
         <v>60</v>
@@ -9591,7 +9591,7 @@
         <v>38</v>
       </c>
       <c r="D150" s="33" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="E150" s="41" t="s">
         <v>332</v>
@@ -9600,13 +9600,13 @@
         <v>46019</v>
       </c>
       <c r="G150" s="35" t="s">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="H150" s="35" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="I150" s="40" t="s">
-        <v>480</v>
+        <v>436</v>
       </c>
       <c r="J150" s="36" t="s">
         <v>60</v>
@@ -9630,7 +9630,7 @@
         <v>191</v>
       </c>
       <c r="S150" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T150" s="36" t="s">
         <v>189</v>
@@ -9654,7 +9654,7 @@
         <v>38</v>
       </c>
       <c r="D151" s="33" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="E151" s="41" t="s">
         <v>332</v>
@@ -9663,13 +9663,13 @@
         <v>46019</v>
       </c>
       <c r="G151" s="35" t="s">
-        <v>410</v>
+        <v>476</v>
       </c>
       <c r="H151" s="35" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="I151" s="40" t="s">
-        <v>481</v>
+        <v>437</v>
       </c>
       <c r="J151" s="36" t="s">
         <v>60</v>
@@ -9693,7 +9693,7 @@
         <v>191</v>
       </c>
       <c r="S151" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T151" s="36" t="s">
         <v>189</v>
@@ -9717,7 +9717,7 @@
         <v>38</v>
       </c>
       <c r="D152" s="33" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="E152" s="41" t="s">
         <v>332</v>
@@ -9726,13 +9726,13 @@
         <v>46019</v>
       </c>
       <c r="G152" s="35" t="s">
-        <v>412</v>
+        <v>477</v>
       </c>
       <c r="H152" s="35" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="I152" s="40" t="s">
-        <v>482</v>
+        <v>438</v>
       </c>
       <c r="J152" s="36" t="s">
         <v>60</v>
@@ -9756,7 +9756,7 @@
         <v>191</v>
       </c>
       <c r="S152" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T152" s="36" t="s">
         <v>189</v>
@@ -9780,7 +9780,7 @@
         <v>38</v>
       </c>
       <c r="D153" s="33" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="E153" s="41" t="s">
         <v>332</v>
@@ -9789,13 +9789,13 @@
         <v>46019</v>
       </c>
       <c r="G153" s="35" t="s">
-        <v>414</v>
+        <v>478</v>
       </c>
       <c r="H153" s="35" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="I153" s="40" t="s">
-        <v>483</v>
+        <v>439</v>
       </c>
       <c r="J153" s="36" t="s">
         <v>60</v>
@@ -9819,7 +9819,7 @@
         <v>191</v>
       </c>
       <c r="S153" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T153" s="36" t="s">
         <v>189</v>
@@ -9843,7 +9843,7 @@
         <v>38</v>
       </c>
       <c r="D154" s="33" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="E154" s="41" t="s">
         <v>332</v>
@@ -9852,13 +9852,13 @@
         <v>46019</v>
       </c>
       <c r="G154" s="35" t="s">
-        <v>416</v>
+        <v>479</v>
       </c>
       <c r="H154" s="35" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="I154" s="40" t="s">
-        <v>484</v>
+        <v>440</v>
       </c>
       <c r="J154" s="36" t="s">
         <v>60</v>
@@ -9882,7 +9882,7 @@
         <v>191</v>
       </c>
       <c r="S154" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T154" s="36" t="s">
         <v>189</v>
@@ -9906,7 +9906,7 @@
         <v>38</v>
       </c>
       <c r="D155" s="33" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="E155" s="41" t="s">
         <v>332</v>
@@ -9915,13 +9915,13 @@
         <v>46019</v>
       </c>
       <c r="G155" s="35" t="s">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="H155" s="35" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="I155" s="40" t="s">
-        <v>485</v>
+        <v>441</v>
       </c>
       <c r="J155" s="36" t="s">
         <v>60</v>
@@ -9945,7 +9945,7 @@
         <v>191</v>
       </c>
       <c r="S155" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T155" s="36" t="s">
         <v>189</v>
@@ -9969,7 +9969,7 @@
         <v>38</v>
       </c>
       <c r="D156" s="33" t="s">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="E156" s="41" t="s">
         <v>332</v>
@@ -9978,13 +9978,13 @@
         <v>46019</v>
       </c>
       <c r="G156" s="35" t="s">
-        <v>420</v>
+        <v>481</v>
       </c>
       <c r="H156" s="35" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="I156" s="40" t="s">
-        <v>486</v>
+        <v>442</v>
       </c>
       <c r="J156" s="36" t="s">
         <v>60</v>
@@ -10008,7 +10008,7 @@
         <v>191</v>
       </c>
       <c r="S156" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T156" s="36" t="s">
         <v>189</v>
@@ -10032,7 +10032,7 @@
         <v>38</v>
       </c>
       <c r="D157" s="33" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="E157" s="41" t="s">
         <v>332</v>
@@ -10041,13 +10041,13 @@
         <v>46019</v>
       </c>
       <c r="G157" s="35" t="s">
-        <v>422</v>
+        <v>482</v>
       </c>
       <c r="H157" s="35" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="I157" s="40" t="s">
-        <v>487</v>
+        <v>443</v>
       </c>
       <c r="J157" s="36" t="s">
         <v>60</v>
@@ -10071,7 +10071,7 @@
         <v>191</v>
       </c>
       <c r="S157" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T157" s="36" t="s">
         <v>189</v>
@@ -10095,7 +10095,7 @@
         <v>38</v>
       </c>
       <c r="D158" s="33" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="E158" s="41" t="s">
         <v>332</v>
@@ -10104,13 +10104,13 @@
         <v>46019</v>
       </c>
       <c r="G158" s="35" t="s">
-        <v>424</v>
+        <v>483</v>
       </c>
       <c r="H158" s="35" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="I158" s="40" t="s">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="J158" s="36" t="s">
         <v>60</v>
@@ -10134,7 +10134,7 @@
         <v>191</v>
       </c>
       <c r="S158" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T158" s="36" t="s">
         <v>189</v>
@@ -10158,7 +10158,7 @@
         <v>38</v>
       </c>
       <c r="D159" s="33" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="E159" s="41" t="s">
         <v>332</v>
@@ -10167,13 +10167,13 @@
         <v>46019</v>
       </c>
       <c r="G159" s="35" t="s">
-        <v>426</v>
+        <v>484</v>
       </c>
       <c r="H159" s="35" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="I159" s="40" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="J159" s="36" t="s">
         <v>60</v>
@@ -10197,7 +10197,7 @@
         <v>191</v>
       </c>
       <c r="S159" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T159" s="36" t="s">
         <v>189</v>
@@ -10221,7 +10221,7 @@
         <v>38</v>
       </c>
       <c r="D160" s="33" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="E160" s="41" t="s">
         <v>332</v>
@@ -10230,13 +10230,13 @@
         <v>46019</v>
       </c>
       <c r="G160" s="35" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="H160" s="35" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="I160" s="40" t="s">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="J160" s="36" t="s">
         <v>60</v>
@@ -10260,7 +10260,7 @@
         <v>191</v>
       </c>
       <c r="S160" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T160" s="36" t="s">
         <v>189</v>
@@ -10284,7 +10284,7 @@
         <v>38</v>
       </c>
       <c r="D161" s="33" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="E161" s="41" t="s">
         <v>332</v>
@@ -10293,13 +10293,13 @@
         <v>46019</v>
       </c>
       <c r="G161" s="35" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="H161" s="35" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="I161" s="40" t="s">
-        <v>491</v>
+        <v>447</v>
       </c>
       <c r="J161" s="36" t="s">
         <v>60</v>
@@ -10323,7 +10323,7 @@
         <v>191</v>
       </c>
       <c r="S161" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T161" s="36" t="s">
         <v>189</v>
@@ -10347,7 +10347,7 @@
         <v>38</v>
       </c>
       <c r="D162" s="33" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="E162" s="41" t="s">
         <v>332</v>
@@ -10356,13 +10356,13 @@
         <v>46019</v>
       </c>
       <c r="G162" s="35" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="H162" s="35" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="I162" s="40" t="s">
-        <v>492</v>
+        <v>448</v>
       </c>
       <c r="J162" s="36" t="s">
         <v>60</v>
@@ -10386,7 +10386,7 @@
         <v>191</v>
       </c>
       <c r="S162" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T162" s="36" t="s">
         <v>189</v>
@@ -10410,7 +10410,7 @@
         <v>38</v>
       </c>
       <c r="D163" s="33" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E163" s="41" t="s">
         <v>332</v>
@@ -10419,13 +10419,13 @@
         <v>46019</v>
       </c>
       <c r="G163" s="35" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="H163" s="35" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="I163" s="40" t="s">
-        <v>493</v>
+        <v>449</v>
       </c>
       <c r="J163" s="36" t="s">
         <v>60</v>
@@ -10449,7 +10449,7 @@
         <v>191</v>
       </c>
       <c r="S163" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T163" s="36" t="s">
         <v>189</v>
@@ -10473,7 +10473,7 @@
         <v>38</v>
       </c>
       <c r="D164" s="33" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="E164" s="41" t="s">
         <v>332</v>
@@ -10482,13 +10482,13 @@
         <v>46019</v>
       </c>
       <c r="G164" s="35" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="H164" s="35" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="I164" s="40" t="s">
-        <v>494</v>
+        <v>450</v>
       </c>
       <c r="J164" s="36" t="s">
         <v>60</v>
@@ -10512,7 +10512,7 @@
         <v>191</v>
       </c>
       <c r="S164" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T164" s="36" t="s">
         <v>189</v>
@@ -10536,7 +10536,7 @@
         <v>38</v>
       </c>
       <c r="D165" s="33" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="E165" s="41" t="s">
         <v>332</v>
@@ -10545,13 +10545,13 @@
         <v>46019</v>
       </c>
       <c r="G165" s="35" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="H165" s="35" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="I165" s="40" t="s">
-        <v>495</v>
+        <v>451</v>
       </c>
       <c r="J165" s="36" t="s">
         <v>60</v>
@@ -10575,7 +10575,7 @@
         <v>191</v>
       </c>
       <c r="S165" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T165" s="36" t="s">
         <v>189</v>
@@ -10599,7 +10599,7 @@
         <v>38</v>
       </c>
       <c r="D166" s="33" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="E166" s="41" t="s">
         <v>332</v>
@@ -10608,13 +10608,13 @@
         <v>46019</v>
       </c>
       <c r="G166" s="35" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="H166" s="35" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="I166" s="40" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="J166" s="36" t="s">
         <v>60</v>
@@ -10638,7 +10638,7 @@
         <v>191</v>
       </c>
       <c r="S166" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T166" s="36" t="s">
         <v>189</v>
@@ -10662,7 +10662,7 @@
         <v>38</v>
       </c>
       <c r="D167" s="33" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="E167" s="41" t="s">
         <v>332</v>
@@ -10671,13 +10671,13 @@
         <v>46019</v>
       </c>
       <c r="G167" s="35" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="H167" s="35" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="I167" s="40" t="s">
-        <v>497</v>
+        <v>453</v>
       </c>
       <c r="J167" s="36" t="s">
         <v>60</v>
@@ -10701,7 +10701,7 @@
         <v>191</v>
       </c>
       <c r="S167" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T167" s="36" t="s">
         <v>189</v>
@@ -10725,7 +10725,7 @@
         <v>48</v>
       </c>
       <c r="D168" s="33" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="E168" s="41" t="s">
         <v>43</v>
@@ -10734,13 +10734,13 @@
         <v>46031</v>
       </c>
       <c r="G168" s="35" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="H168" s="35" t="s">
-        <v>475</v>
+        <v>432</v>
       </c>
       <c r="I168" s="40" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="J168" s="36" t="s">
         <v>60</v>
@@ -10764,7 +10764,7 @@
         <v>191</v>
       </c>
       <c r="S168" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T168" s="36" t="s">
         <v>189</v>
@@ -10786,7 +10786,7 @@
         <v>48</v>
       </c>
       <c r="D169" s="33" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="E169" s="41" t="s">
         <v>53</v>
@@ -10795,13 +10795,13 @@
         <v>46031</v>
       </c>
       <c r="G169" s="35" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="H169" s="35" t="s">
-        <v>477</v>
+        <v>433</v>
       </c>
       <c r="I169" s="40" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="J169" s="36" t="s">
         <v>60</v>
@@ -10825,7 +10825,7 @@
         <v>191</v>
       </c>
       <c r="S169" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T169" s="36" t="s">
         <v>189</v>
@@ -10847,7 +10847,7 @@
         <v>48</v>
       </c>
       <c r="D170" s="33" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="E170" s="41" t="s">
         <v>333</v>
@@ -10856,7 +10856,7 @@
         <v>46030</v>
       </c>
       <c r="G170" s="35" t="s">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="H170" s="35"/>
       <c r="I170" s="40"/>
@@ -10882,7 +10882,7 @@
         <v>191</v>
       </c>
       <c r="S170" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T170" s="36" t="s">
         <v>189</v>
@@ -10913,7 +10913,7 @@
         <v>46017</v>
       </c>
       <c r="G171" s="35" t="s">
-        <v>360</v>
+        <v>496</v>
       </c>
       <c r="H171" s="35" t="s">
         <v>352</v>
@@ -11073,7 +11073,7 @@
         <v>46017</v>
       </c>
       <c r="G175" s="35" t="s">
-        <v>361</v>
+        <v>497</v>
       </c>
       <c r="H175" s="35" t="s">
         <v>354</v>
@@ -11122,13 +11122,13 @@
         <v>46018</v>
       </c>
       <c r="G176" s="35" t="s">
-        <v>359</v>
+        <v>498</v>
       </c>
       <c r="H176" s="35" t="s">
         <v>358</v>
       </c>
       <c r="I176" s="40" t="s">
-        <v>498</v>
+        <v>454</v>
       </c>
       <c r="J176" s="36" t="s">
         <v>60</v>
@@ -11152,7 +11152,7 @@
         <v>191</v>
       </c>
       <c r="S176" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T176" s="36" t="s">
         <v>189</v>
@@ -11176,7 +11176,7 @@
         <v>48</v>
       </c>
       <c r="D177" s="33" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E177" s="41" t="s">
         <v>332</v>
@@ -11185,13 +11185,13 @@
         <v>46018</v>
       </c>
       <c r="G177" s="35" t="s">
-        <v>364</v>
+        <v>499</v>
       </c>
       <c r="H177" s="35" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I177" s="40" t="s">
-        <v>499</v>
+        <v>455</v>
       </c>
       <c r="J177" s="36" t="s">
         <v>60</v>
@@ -11215,7 +11215,7 @@
         <v>191</v>
       </c>
       <c r="S177" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T177" s="36" t="s">
         <v>189</v>
@@ -11239,7 +11239,7 @@
         <v>48</v>
       </c>
       <c r="D178" s="33" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E178" s="41" t="s">
         <v>332</v>
@@ -11248,13 +11248,13 @@
         <v>46018</v>
       </c>
       <c r="G178" s="35" t="s">
-        <v>366</v>
+        <v>500</v>
       </c>
       <c r="H178" s="35" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I178" s="40" t="s">
-        <v>500</v>
+        <v>456</v>
       </c>
       <c r="J178" s="36" t="s">
         <v>60</v>
@@ -11278,7 +11278,7 @@
         <v>191</v>
       </c>
       <c r="S178" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T178" s="36" t="s">
         <v>189</v>
@@ -11311,13 +11311,13 @@
         <v>46018</v>
       </c>
       <c r="G179" s="35" t="s">
-        <v>368</v>
+        <v>501</v>
       </c>
       <c r="H179" s="35" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="I179" s="40" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="J179" s="36" t="s">
         <v>60</v>
@@ -11341,7 +11341,7 @@
         <v>191</v>
       </c>
       <c r="S179" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T179" s="36" t="s">
         <v>189</v>
@@ -11374,13 +11374,13 @@
         <v>46018</v>
       </c>
       <c r="G180" s="35" t="s">
-        <v>370</v>
+        <v>502</v>
       </c>
       <c r="H180" s="35" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="I180" s="40" t="s">
-        <v>502</v>
+        <v>458</v>
       </c>
       <c r="J180" s="36" t="s">
         <v>60</v>
@@ -11404,7 +11404,7 @@
         <v>191</v>
       </c>
       <c r="S180" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T180" s="36" t="s">
         <v>189</v>
@@ -11437,13 +11437,13 @@
         <v>46018</v>
       </c>
       <c r="G181" s="35" t="s">
-        <v>372</v>
+        <v>503</v>
       </c>
       <c r="H181" s="35" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="I181" s="40" t="s">
-        <v>503</v>
+        <v>459</v>
       </c>
       <c r="J181" s="36" t="s">
         <v>60</v>
@@ -11467,7 +11467,7 @@
         <v>191</v>
       </c>
       <c r="S181" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T181" s="36" t="s">
         <v>189</v>
@@ -11500,13 +11500,13 @@
         <v>46018</v>
       </c>
       <c r="G182" s="35" t="s">
-        <v>374</v>
+        <v>504</v>
       </c>
       <c r="H182" s="35" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="I182" s="40" t="s">
-        <v>504</v>
+        <v>460</v>
       </c>
       <c r="J182" s="36" t="s">
         <v>60</v>
@@ -11530,7 +11530,7 @@
         <v>191</v>
       </c>
       <c r="S182" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T182" s="36" t="s">
         <v>189</v>
@@ -11563,13 +11563,13 @@
         <v>46018</v>
       </c>
       <c r="G183" s="35" t="s">
-        <v>376</v>
+        <v>505</v>
       </c>
       <c r="H183" s="35" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="I183" s="40" t="s">
-        <v>505</v>
+        <v>461</v>
       </c>
       <c r="J183" s="36" t="s">
         <v>60</v>
@@ -11593,7 +11593,7 @@
         <v>191</v>
       </c>
       <c r="S183" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T183" s="36" t="s">
         <v>189</v>
@@ -11626,13 +11626,13 @@
         <v>46018</v>
       </c>
       <c r="G184" s="35" t="s">
-        <v>378</v>
+        <v>506</v>
       </c>
       <c r="H184" s="35" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="I184" s="40" t="s">
-        <v>506</v>
+        <v>462</v>
       </c>
       <c r="J184" s="36" t="s">
         <v>60</v>
@@ -11656,7 +11656,7 @@
         <v>191</v>
       </c>
       <c r="S184" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T184" s="36" t="s">
         <v>189</v>
@@ -11689,13 +11689,13 @@
         <v>46018</v>
       </c>
       <c r="G185" s="35" t="s">
-        <v>380</v>
+        <v>507</v>
       </c>
       <c r="H185" s="35" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="I185" s="40" t="s">
-        <v>507</v>
+        <v>463</v>
       </c>
       <c r="J185" s="36" t="s">
         <v>60</v>
@@ -11719,7 +11719,7 @@
         <v>191</v>
       </c>
       <c r="S185" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T185" s="36" t="s">
         <v>189</v>
@@ -11752,13 +11752,13 @@
         <v>46018</v>
       </c>
       <c r="G186" s="35" t="s">
-        <v>382</v>
+        <v>508</v>
       </c>
       <c r="H186" s="35" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="I186" s="40" t="s">
-        <v>508</v>
+        <v>464</v>
       </c>
       <c r="J186" s="36" t="s">
         <v>60</v>
@@ -11782,7 +11782,7 @@
         <v>191</v>
       </c>
       <c r="S186" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T186" s="36" t="s">
         <v>189</v>
@@ -11815,13 +11815,13 @@
         <v>46018</v>
       </c>
       <c r="G187" s="35" t="s">
-        <v>384</v>
+        <v>509</v>
       </c>
       <c r="H187" s="35" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="I187" s="40" t="s">
-        <v>509</v>
+        <v>465</v>
       </c>
       <c r="J187" s="36" t="s">
         <v>60</v>
@@ -11845,7 +11845,7 @@
         <v>191</v>
       </c>
       <c r="S187" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T187" s="36" t="s">
         <v>189</v>
@@ -11878,13 +11878,13 @@
         <v>46018</v>
       </c>
       <c r="G188" s="35" t="s">
-        <v>386</v>
+        <v>510</v>
       </c>
       <c r="H188" s="35" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="I188" s="40" t="s">
-        <v>510</v>
+        <v>466</v>
       </c>
       <c r="J188" s="36" t="s">
         <v>60</v>
@@ -11908,7 +11908,7 @@
         <v>191</v>
       </c>
       <c r="S188" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T188" s="36" t="s">
         <v>189</v>
@@ -11941,13 +11941,13 @@
         <v>46018</v>
       </c>
       <c r="G189" s="35" t="s">
-        <v>388</v>
+        <v>511</v>
       </c>
       <c r="H189" s="35" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="I189" s="40" t="s">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="J189" s="36" t="s">
         <v>60</v>
@@ -11971,7 +11971,7 @@
         <v>191</v>
       </c>
       <c r="S189" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T189" s="36" t="s">
         <v>189</v>
@@ -12004,13 +12004,13 @@
         <v>46018</v>
       </c>
       <c r="G190" s="35" t="s">
-        <v>390</v>
+        <v>512</v>
       </c>
       <c r="H190" s="35" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="I190" s="40" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="J190" s="36" t="s">
         <v>60</v>
@@ -12034,7 +12034,7 @@
         <v>191</v>
       </c>
       <c r="S190" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T190" s="36" t="s">
         <v>189</v>
@@ -12067,13 +12067,13 @@
         <v>46018</v>
       </c>
       <c r="G191" s="35" t="s">
-        <v>392</v>
+        <v>513</v>
       </c>
       <c r="H191" s="35" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="I191" s="40" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="J191" s="36" t="s">
         <v>60</v>
@@ -12097,7 +12097,7 @@
         <v>191</v>
       </c>
       <c r="S191" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T191" s="36" t="s">
         <v>189</v>
@@ -12121,7 +12121,7 @@
         <v>48</v>
       </c>
       <c r="D192" s="33" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="E192" s="41" t="s">
         <v>332</v>
@@ -12130,13 +12130,13 @@
         <v>46018</v>
       </c>
       <c r="G192" s="35" t="s">
-        <v>395</v>
+        <v>514</v>
       </c>
       <c r="H192" s="35" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="I192" s="40" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="J192" s="36" t="s">
         <v>60</v>
@@ -12160,7 +12160,7 @@
         <v>191</v>
       </c>
       <c r="S192" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T192" s="36" t="s">
         <v>189</v>
@@ -12184,7 +12184,7 @@
         <v>48</v>
       </c>
       <c r="D193" s="33" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="E193" s="41" t="s">
         <v>332</v>
@@ -12193,13 +12193,13 @@
         <v>46018</v>
       </c>
       <c r="G193" s="35" t="s">
-        <v>397</v>
+        <v>515</v>
       </c>
       <c r="H193" s="35" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="I193" s="40" t="s">
-        <v>515</v>
+        <v>471</v>
       </c>
       <c r="J193" s="36" t="s">
         <v>60</v>
@@ -12223,7 +12223,7 @@
         <v>191</v>
       </c>
       <c r="S193" s="36" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="T193" s="36" t="s">
         <v>189</v>
@@ -15967,7 +15967,7 @@
         <v>471.47199999999998</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -15981,7 +15981,7 @@
         <v>448.44900000000001</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17992,21 +17992,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -18150,31 +18135,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18190,4 +18166,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GATEWAY/tarasoft/tarasoft_/45801/2.0/report-checklist.xlsx
+++ b/GATEWAY/tarasoft/tarasoft_/45801/2.0/report-checklist.xlsx
@@ -9337,7 +9337,7 @@
       <c r="K145" s="36"/>
       <c r="L145" s="36"/>
       <c r="M145" s="36" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="N145" s="36" t="s">
         <v>191</v>
@@ -9398,7 +9398,7 @@
       <c r="K146" s="36"/>
       <c r="L146" s="36"/>
       <c r="M146" s="36" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="N146" s="36" t="s">
         <v>191</v>
@@ -9677,7 +9677,7 @@
       <c r="K151" s="36"/>
       <c r="L151" s="36"/>
       <c r="M151" s="36" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="N151" s="36" t="s">
         <v>191</v>
@@ -9740,7 +9740,7 @@
       <c r="K152" s="36"/>
       <c r="L152" s="36"/>
       <c r="M152" s="36" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="N152" s="36" t="s">
         <v>191</v>
@@ -9803,7 +9803,7 @@
       <c r="K153" s="36"/>
       <c r="L153" s="36"/>
       <c r="M153" s="36" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="N153" s="36" t="s">
         <v>191</v>
@@ -9866,7 +9866,7 @@
       <c r="K154" s="36"/>
       <c r="L154" s="36"/>
       <c r="M154" s="36" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="N154" s="36" t="s">
         <v>191</v>
@@ -10559,7 +10559,7 @@
       <c r="K165" s="36"/>
       <c r="L165" s="36"/>
       <c r="M165" s="36" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="N165" s="36" t="s">
         <v>191</v>
@@ -10748,7 +10748,7 @@
       <c r="K168" s="36"/>
       <c r="L168" s="36"/>
       <c r="M168" s="36" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="N168" s="36" t="s">
         <v>191</v>
@@ -10809,7 +10809,7 @@
       <c r="K169" s="36"/>
       <c r="L169" s="36"/>
       <c r="M169" s="36" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="N169" s="36" t="s">
         <v>191</v>
@@ -11199,7 +11199,7 @@
       <c r="K177" s="36"/>
       <c r="L177" s="36"/>
       <c r="M177" s="36" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="N177" s="36" t="s">
         <v>191</v>
@@ -11262,7 +11262,7 @@
       <c r="K178" s="36"/>
       <c r="L178" s="36"/>
       <c r="M178" s="36" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="N178" s="36" t="s">
         <v>191</v>
@@ -11325,7 +11325,7 @@
       <c r="K179" s="36"/>
       <c r="L179" s="36"/>
       <c r="M179" s="36" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="N179" s="36" t="s">
         <v>191</v>
@@ -11577,7 +11577,7 @@
       <c r="K183" s="36"/>
       <c r="L183" s="36"/>
       <c r="M183" s="36" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="N183" s="36" t="s">
         <v>191</v>
@@ -17992,6 +17992,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -18135,22 +18150,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18166,28 +18190,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/tarasoft/tarasoft_/45801/2.0/report-checklist.xlsx
+++ b/GATEWAY/tarasoft/tarasoft_/45801/2.0/report-checklist.xlsx
@@ -19,25 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$174</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataChecksum="oXWj5iU3LtnvLpdhFqszSz/X91q3fG5U5zC5TJKtiGw="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -74,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="516">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1439,18 +1420,9 @@
     <t>VALIDAZIONE_CDA2_RSA_CT08_KO</t>
   </si>
   <si>
-    <t>ff5893859fee1ff1d9add993ffd99a08</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT09_KO</t>
   </si>
   <si>
-    <t>6b97fb52545271717e74d3fa33dc5b2b</t>
-  </si>
-  <si>
-    <t>1b0dfb9feecd9d1f6d05619780fdebb4</t>
-  </si>
-  <si>
     <t>238366544401a5af2f68a2924b72abb5</t>
   </si>
   <si>
@@ -1460,9 +1432,6 @@
     <t>847a9f827cba82574887d87fd6ee3181</t>
   </si>
   <si>
-    <t>c3a4b129aab8ecb19e18bc91caeb79b1</t>
-  </si>
-  <si>
     <t>cc08bf4b5b609cd6343ddf1fafdbe584</t>
   </si>
   <si>
@@ -1520,18 +1489,6 @@
     <t>d5752852c2256166990db7f2300e0802</t>
   </si>
   <si>
-    <t>2e5fe0a8a5dd0ccc0cbe676ea46fc6be</t>
-  </si>
-  <si>
-    <t>62e77ae86bb600d57c68b3d0242743c9</t>
-  </si>
-  <si>
-    <t>9e4533243aca85b5c482f8caca650c50</t>
-  </si>
-  <si>
-    <t>575b07491762f0358e061ba738415070</t>
-  </si>
-  <si>
     <t>044b9ebd672cef670684353a0e58737e</t>
   </si>
   <si>
@@ -1562,9 +1519,6 @@
     <t>815620bdbf9e26999ad7e1a461fc5050</t>
   </si>
   <si>
-    <t>5b7a5aad9ff65603786a49db2d916851</t>
-  </si>
-  <si>
     <t>4d09839b11a460642b547bd68e11a9e2</t>
   </si>
   <si>
@@ -1649,9 +1603,279 @@
     <t>32,40,48,152,154,155,156,159,160,161,162,163,164,165,166,167,168,169,461,468,475</t>
   </si>
   <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.a33008399d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.7eda12b8c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.ce6695fc58^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.8d67ef64a1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.6f29b40453^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.6699cec040^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.79db1f9050^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.5ab384edaf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.c0f6aaf398^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.c9c5cc175c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.908715a8ec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.33a1839d67^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.ff4e7c7ad6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.148a87cdb8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.418cd14293^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.a0fca74644^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.838396e4f8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.acf021b9d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.2b9944c775^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.8549106554^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.9d76cd3aac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.dc1f25d8f1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.ed3f5f078a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.40334c83e5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.b0070ee7e9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.9c65fc9b96^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.89636a2fe9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-12-27T15:14:21Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T16:09:06Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T04:56:38Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:29:27Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:35:40Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:40:08Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:46:03Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:50:16Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:00:54Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:05:54Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:10:46Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:16:05Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:22:16Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:34:02Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:38:57Z</t>
+  </si>
+  <si>
+    <t>2026-01-08T10:26:05Z</t>
+  </si>
+  <si>
+    <t>2026-01-08T10:05:31Z</t>
+  </si>
+  <si>
+    <t>2025-12-26T16:01:45Z</t>
+  </si>
+  <si>
+    <t>2025-12-26T17:54:42Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T06:28:33Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T07:25:25Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T07:33:11Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T07:39:30Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T08:03:31Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:28:40Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:34:09Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:39:14Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:47:28Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:54:34Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:59:58Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T10:04:35Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T10:09:52Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T10:14:39Z</t>
+  </si>
+  <si>
+    <t>2026-01-27T05:48:49Z</t>
+  </si>
+  <si>
+    <t>844e981834214c2bfd10347e6b480e3c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.465f63e06a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T05:52:35Z</t>
+  </si>
+  <si>
+    <t>226362c83a608cc7bde6361e72e4a786</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.fb5d2a3763^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T05:57:23Z</t>
+  </si>
+  <si>
+    <t>078f2eb4ff4999a6c718ab123ebeb43f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.0f056693bf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T06:32:31Z</t>
+  </si>
+  <si>
+    <t>97236d3523edafd15acb566141b93891</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.376746e8fe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T06:44:50Z</t>
+  </si>
+  <si>
+    <t>adba16cad3937538fe749c8c1d3e6bbd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.1db0ad62ff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T08:43:31Z</t>
+  </si>
+  <si>
+    <t>7be4ad9b62f68df9ac52f8198ee68e64</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.2f9bd935b8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T08:48:58Z</t>
+  </si>
+  <si>
+    <t>3e4d98668a58d635fd43b4ba7caa1927</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.b91ffb9270^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T08:54:46Z</t>
+  </si>
+  <si>
+    <t>c76c96b43d7e3679bd35e6cebfe62c43</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.bd59e1b87b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T10:01:30Z</t>
+  </si>
+  <si>
+    <t>f1a24c7ad8b1793962edd240b63a28b3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.9263cf55d7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>b0a671d964e6ce428906b636feb3c55a</t>
   </si>
   <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>2026-01-09T08:18:25Z</t>
+  </si>
+  <si>
     <t>2fed3da5ebeaba6ab7f63fab35b15109</t>
   </si>
   <si>
@@ -1661,250 +1885,7 @@
     <t>5d0d1e438fd8d44b5252d8bcf01ca926</t>
   </si>
   <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.a33008399d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.d56c6c83f9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.6456c4db14^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.1e2051b7af^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.6c607ff68e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.7eda12b8c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.ce6695fc58^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.8d67ef64a1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.6f29b40453^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.6699cec040^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.79db1f9050^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.5ab384edaf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.c0f6aaf398^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.c9c5cc175c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.908715a8ec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.fd1a32a339^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.33a1839d67^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.ff4e7c7ad6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.148a87cdb8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.7d4bc6c110^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.212c50a6d7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.2bba72f1f3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.418cd14293^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.a0fca74644^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.838396e4f8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.6113c6a4f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.acf021b9d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.2b9944c775^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.8549106554^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.9d76cd3aac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.dc1f25d8f1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.ed3f5f078a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.40334c83e5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.b0070ee7e9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.9c65fc9b96^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.89636a2fe9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-01-09T08:18:25Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T15:14:21Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T16:09:06Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T04:56:38Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:02:14Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:07:52Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:12:31Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:21:02Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:29:27Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:35:40Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:40:08Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:46:03Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:50:16Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:00:54Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:05:54Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:10:46Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:16:05Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:22:16Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:30:18Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:34:02Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:38:57Z</t>
-  </si>
-  <si>
     <t>2026-01-09T08:51:28Z</t>
-  </si>
-  <si>
-    <t>2026-01-08T10:26:05Z</t>
-  </si>
-  <si>
-    <t>2026-01-08T10:05:31Z</t>
-  </si>
-  <si>
-    <t>2025-12-26T16:01:45Z</t>
-  </si>
-  <si>
-    <t>2025-12-26T17:54:42Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T06:28:33Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T06:54:21Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T07:03:41Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T07:12:04Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T07:25:25Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T07:33:11Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T07:39:30Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T07:55:56Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T08:03:31Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T09:28:40Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T09:34:09Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T09:39:14Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T09:47:28Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T09:54:34Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T09:59:58Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T10:04:35Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T10:09:52Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T10:14:39Z</t>
   </si>
 </sst>
 </file>
@@ -1914,11 +1895,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2033,6 +2021,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF242424"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2377,184 +2372,220 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -2627,9 +2658,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2853,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4007,7 +4035,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.453125" customWidth="1"/>
     <col min="2" max="2" width="27.1796875" customWidth="1"/>
@@ -4026,6 +4054,7 @@
     <col min="21" max="21" width="36.453125" customWidth="1"/>
     <col min="22" max="22" width="39.26953125" customWidth="1"/>
     <col min="23" max="23" width="31.81640625" customWidth="1"/>
+    <col min="24" max="26" width="14.453125"/>
     <col min="27" max="27" width="30.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4051,14 +4080,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="63" t="s">
         <v>346</v>
       </c>
-      <c r="D2" s="61"/>
+      <c r="D2" s="62"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4079,14 +4108,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="69" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="70" t="s">
         <v>347</v>
       </c>
-      <c r="D3" s="61"/>
+      <c r="D3" s="62"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4107,12 +4136,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="69" t="s">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="70" t="s">
         <v>348</v>
       </c>
-      <c r="D4" s="61"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4134,12 +4163,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70" t="s">
         <v>349</v>
       </c>
-      <c r="D5" s="61"/>
+      <c r="D5" s="62"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4160,8 +4189,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9314,27 +9343,29 @@
         <v>38</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E145" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F145" s="35">
+      <c r="F145" s="71">
         <v>46031</v>
       </c>
-      <c r="G145" s="35" t="s">
-        <v>472</v>
+      <c r="G145" s="73" t="s">
+        <v>511</v>
       </c>
       <c r="H145" s="35" t="s">
-        <v>430</v>
+        <v>509</v>
       </c>
       <c r="I145" s="40" t="s">
-        <v>435</v>
+        <v>510</v>
       </c>
       <c r="J145" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="K145" s="36"/>
+      <c r="K145" s="58" t="s">
+        <v>199</v>
+      </c>
       <c r="L145" s="36"/>
       <c r="M145" s="36" t="s">
         <v>60</v>
@@ -9353,7 +9384,7 @@
         <v>191</v>
       </c>
       <c r="S145" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T145" s="36" t="s">
         <v>189</v>
@@ -9375,27 +9406,29 @@
         <v>38</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E146" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F146" s="35">
+      <c r="F146" s="72">
         <v>46031</v>
       </c>
-      <c r="G146" s="35" t="s">
-        <v>472</v>
-      </c>
-      <c r="H146" s="35" t="s">
-        <v>431</v>
-      </c>
-      <c r="I146" s="40" t="s">
-        <v>435</v>
+      <c r="G146" s="81" t="s">
+        <v>511</v>
+      </c>
+      <c r="H146" s="74" t="s">
+        <v>512</v>
+      </c>
+      <c r="I146" s="75" t="s">
+        <v>510</v>
       </c>
       <c r="J146" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="K146" s="36"/>
+      <c r="K146" s="58" t="s">
+        <v>199</v>
+      </c>
       <c r="L146" s="36"/>
       <c r="M146" s="36" t="s">
         <v>60</v>
@@ -9414,7 +9447,7 @@
         <v>191</v>
       </c>
       <c r="S146" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T146" s="36" t="s">
         <v>189</v>
@@ -9436,7 +9469,7 @@
         <v>38</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E147" s="41" t="s">
         <v>333</v>
@@ -9445,7 +9478,7 @@
         <v>46030</v>
       </c>
       <c r="G147" s="35" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="H147" s="35"/>
       <c r="I147" s="40"/>
@@ -9471,7 +9504,7 @@
         <v>191</v>
       </c>
       <c r="S147" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T147" s="36" t="s">
         <v>189</v>
@@ -9493,7 +9526,7 @@
         <v>38</v>
       </c>
       <c r="D148" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E148" s="41" t="s">
         <v>332</v>
@@ -9502,13 +9535,13 @@
         <v>46018</v>
       </c>
       <c r="G148" s="35" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="H148" s="35" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I148" s="40" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J148" s="36" t="s">
         <v>60</v>
@@ -9542,7 +9575,7 @@
         <v>38</v>
       </c>
       <c r="D149" s="33" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E149" s="41" t="s">
         <v>332</v>
@@ -9551,13 +9584,13 @@
         <v>46018</v>
       </c>
       <c r="G149" s="35" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="H149" s="35" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I149" s="40" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J149" s="36" t="s">
         <v>60</v>
@@ -9591,7 +9624,7 @@
         <v>38</v>
       </c>
       <c r="D150" s="33" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E150" s="41" t="s">
         <v>332</v>
@@ -9600,13 +9633,13 @@
         <v>46019</v>
       </c>
       <c r="G150" s="35" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="H150" s="35" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I150" s="40" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="J150" s="36" t="s">
         <v>60</v>
@@ -9630,7 +9663,7 @@
         <v>191</v>
       </c>
       <c r="S150" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T150" s="36" t="s">
         <v>189</v>
@@ -9654,22 +9687,22 @@
         <v>38</v>
       </c>
       <c r="D151" s="33" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E151" s="41" t="s">
         <v>332</v>
       </c>
       <c r="F151" s="35">
-        <v>46019</v>
+        <v>46049</v>
       </c>
       <c r="G151" s="35" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="H151" s="35" t="s">
-        <v>387</v>
+        <v>483</v>
       </c>
       <c r="I151" s="40" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="J151" s="36" t="s">
         <v>60</v>
@@ -9677,7 +9710,7 @@
       <c r="K151" s="36"/>
       <c r="L151" s="36"/>
       <c r="M151" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N151" s="36" t="s">
         <v>191</v>
@@ -9693,7 +9726,7 @@
         <v>191</v>
       </c>
       <c r="S151" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T151" s="36" t="s">
         <v>189</v>
@@ -9717,22 +9750,22 @@
         <v>38</v>
       </c>
       <c r="D152" s="33" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E152" s="41" t="s">
         <v>332</v>
       </c>
       <c r="F152" s="35">
-        <v>46019</v>
+        <v>46049</v>
       </c>
       <c r="G152" s="35" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="H152" s="35" t="s">
-        <v>388</v>
+        <v>486</v>
       </c>
       <c r="I152" s="40" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="J152" s="36" t="s">
         <v>60</v>
@@ -9740,7 +9773,7 @@
       <c r="K152" s="36"/>
       <c r="L152" s="36"/>
       <c r="M152" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N152" s="36" t="s">
         <v>191</v>
@@ -9756,7 +9789,7 @@
         <v>191</v>
       </c>
       <c r="S152" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T152" s="36" t="s">
         <v>189</v>
@@ -9780,22 +9813,22 @@
         <v>38</v>
       </c>
       <c r="D153" s="33" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="E153" s="41" t="s">
         <v>332</v>
       </c>
       <c r="F153" s="35">
-        <v>46019</v>
+        <v>46049</v>
       </c>
       <c r="G153" s="35" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="H153" s="35" t="s">
-        <v>389</v>
+        <v>489</v>
       </c>
       <c r="I153" s="40" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="J153" s="36" t="s">
         <v>60</v>
@@ -9803,7 +9836,7 @@
       <c r="K153" s="36"/>
       <c r="L153" s="36"/>
       <c r="M153" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N153" s="36" t="s">
         <v>191</v>
@@ -9819,7 +9852,7 @@
         <v>191</v>
       </c>
       <c r="S153" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T153" s="36" t="s">
         <v>189</v>
@@ -9843,22 +9876,22 @@
         <v>38</v>
       </c>
       <c r="D154" s="33" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E154" s="41" t="s">
         <v>332</v>
       </c>
       <c r="F154" s="35">
-        <v>46019</v>
+        <v>46049</v>
       </c>
       <c r="G154" s="35" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="H154" s="35" t="s">
-        <v>390</v>
+        <v>492</v>
       </c>
       <c r="I154" s="40" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="J154" s="36" t="s">
         <v>60</v>
@@ -9866,7 +9899,7 @@
       <c r="K154" s="36"/>
       <c r="L154" s="36"/>
       <c r="M154" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N154" s="36" t="s">
         <v>191</v>
@@ -9882,7 +9915,7 @@
         <v>191</v>
       </c>
       <c r="S154" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T154" s="36" t="s">
         <v>189</v>
@@ -9906,7 +9939,7 @@
         <v>38</v>
       </c>
       <c r="D155" s="33" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E155" s="41" t="s">
         <v>332</v>
@@ -9915,13 +9948,13 @@
         <v>46019</v>
       </c>
       <c r="G155" s="35" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="H155" s="35" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="I155" s="40" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="J155" s="36" t="s">
         <v>60</v>
@@ -9945,7 +9978,7 @@
         <v>191</v>
       </c>
       <c r="S155" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T155" s="36" t="s">
         <v>189</v>
@@ -9969,7 +10002,7 @@
         <v>38</v>
       </c>
       <c r="D156" s="33" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="E156" s="41" t="s">
         <v>332</v>
@@ -9978,13 +10011,13 @@
         <v>46019</v>
       </c>
       <c r="G156" s="35" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="H156" s="35" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="I156" s="40" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="J156" s="36" t="s">
         <v>60</v>
@@ -10008,7 +10041,7 @@
         <v>191</v>
       </c>
       <c r="S156" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T156" s="36" t="s">
         <v>189</v>
@@ -10032,7 +10065,7 @@
         <v>38</v>
       </c>
       <c r="D157" s="33" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E157" s="41" t="s">
         <v>332</v>
@@ -10041,13 +10074,13 @@
         <v>46019</v>
       </c>
       <c r="G157" s="35" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="H157" s="35" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="I157" s="40" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="J157" s="36" t="s">
         <v>60</v>
@@ -10071,7 +10104,7 @@
         <v>191</v>
       </c>
       <c r="S157" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T157" s="36" t="s">
         <v>189</v>
@@ -10095,7 +10128,7 @@
         <v>38</v>
       </c>
       <c r="D158" s="33" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="E158" s="41" t="s">
         <v>332</v>
@@ -10104,13 +10137,13 @@
         <v>46019</v>
       </c>
       <c r="G158" s="35" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="H158" s="35" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="I158" s="40" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="J158" s="36" t="s">
         <v>60</v>
@@ -10134,7 +10167,7 @@
         <v>191</v>
       </c>
       <c r="S158" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T158" s="36" t="s">
         <v>189</v>
@@ -10158,7 +10191,7 @@
         <v>38</v>
       </c>
       <c r="D159" s="33" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E159" s="41" t="s">
         <v>332</v>
@@ -10167,13 +10200,13 @@
         <v>46019</v>
       </c>
       <c r="G159" s="35" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="H159" s="35" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I159" s="40" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="J159" s="36" t="s">
         <v>60</v>
@@ -10197,7 +10230,7 @@
         <v>191</v>
       </c>
       <c r="S159" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T159" s="36" t="s">
         <v>189</v>
@@ -10221,7 +10254,7 @@
         <v>38</v>
       </c>
       <c r="D160" s="33" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E160" s="41" t="s">
         <v>332</v>
@@ -10230,13 +10263,13 @@
         <v>46019</v>
       </c>
       <c r="G160" s="35" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="H160" s="35" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="I160" s="40" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="J160" s="36" t="s">
         <v>60</v>
@@ -10260,7 +10293,7 @@
         <v>191</v>
       </c>
       <c r="S160" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T160" s="36" t="s">
         <v>189</v>
@@ -10284,7 +10317,7 @@
         <v>38</v>
       </c>
       <c r="D161" s="33" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="E161" s="41" t="s">
         <v>332</v>
@@ -10293,13 +10326,13 @@
         <v>46019</v>
       </c>
       <c r="G161" s="35" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="H161" s="35" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="I161" s="40" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="J161" s="36" t="s">
         <v>60</v>
@@ -10323,7 +10356,7 @@
         <v>191</v>
       </c>
       <c r="S161" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T161" s="36" t="s">
         <v>189</v>
@@ -10347,7 +10380,7 @@
         <v>38</v>
       </c>
       <c r="D162" s="33" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="E162" s="41" t="s">
         <v>332</v>
@@ -10356,13 +10389,13 @@
         <v>46019</v>
       </c>
       <c r="G162" s="35" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="H162" s="35" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="I162" s="40" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="J162" s="36" t="s">
         <v>60</v>
@@ -10386,7 +10419,7 @@
         <v>191</v>
       </c>
       <c r="S162" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T162" s="36" t="s">
         <v>189</v>
@@ -10410,7 +10443,7 @@
         <v>38</v>
       </c>
       <c r="D163" s="33" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="E163" s="41" t="s">
         <v>332</v>
@@ -10419,13 +10452,13 @@
         <v>46019</v>
       </c>
       <c r="G163" s="35" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="H163" s="35" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="I163" s="40" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="J163" s="36" t="s">
         <v>60</v>
@@ -10449,7 +10482,7 @@
         <v>191</v>
       </c>
       <c r="S163" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T163" s="36" t="s">
         <v>189</v>
@@ -10473,7 +10506,7 @@
         <v>38</v>
       </c>
       <c r="D164" s="33" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E164" s="41" t="s">
         <v>332</v>
@@ -10482,13 +10515,13 @@
         <v>46019</v>
       </c>
       <c r="G164" s="35" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="H164" s="35" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="I164" s="40" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="J164" s="36" t="s">
         <v>60</v>
@@ -10512,7 +10545,7 @@
         <v>191</v>
       </c>
       <c r="S164" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T164" s="36" t="s">
         <v>189</v>
@@ -10536,22 +10569,22 @@
         <v>38</v>
       </c>
       <c r="D165" s="33" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E165" s="41" t="s">
         <v>332</v>
       </c>
       <c r="F165" s="35">
-        <v>46019</v>
+        <v>46049</v>
       </c>
       <c r="G165" s="35" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H165" s="35" t="s">
-        <v>401</v>
+        <v>495</v>
       </c>
       <c r="I165" s="40" t="s">
-        <v>451</v>
+        <v>496</v>
       </c>
       <c r="J165" s="36" t="s">
         <v>60</v>
@@ -10559,7 +10592,7 @@
       <c r="K165" s="36"/>
       <c r="L165" s="36"/>
       <c r="M165" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N165" s="36" t="s">
         <v>191</v>
@@ -10575,7 +10608,7 @@
         <v>191</v>
       </c>
       <c r="S165" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T165" s="36" t="s">
         <v>189</v>
@@ -10599,7 +10632,7 @@
         <v>38</v>
       </c>
       <c r="D166" s="33" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E166" s="41" t="s">
         <v>332</v>
@@ -10608,13 +10641,13 @@
         <v>46019</v>
       </c>
       <c r="G166" s="35" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="H166" s="35" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="I166" s="40" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="J166" s="36" t="s">
         <v>60</v>
@@ -10638,7 +10671,7 @@
         <v>191</v>
       </c>
       <c r="S166" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T166" s="36" t="s">
         <v>189</v>
@@ -10662,7 +10695,7 @@
         <v>38</v>
       </c>
       <c r="D167" s="33" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="E167" s="41" t="s">
         <v>332</v>
@@ -10671,13 +10704,13 @@
         <v>46019</v>
       </c>
       <c r="G167" s="35" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="H167" s="35" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I167" s="40" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="J167" s="36" t="s">
         <v>60</v>
@@ -10701,7 +10734,7 @@
         <v>191</v>
       </c>
       <c r="S167" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T167" s="36" t="s">
         <v>189</v>
@@ -10725,27 +10758,29 @@
         <v>48</v>
       </c>
       <c r="D168" s="33" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E168" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F168" s="35">
+      <c r="F168" s="76">
         <v>46031</v>
       </c>
-      <c r="G168" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="H168" s="35" t="s">
-        <v>432</v>
-      </c>
-      <c r="I168" s="40" t="s">
-        <v>435</v>
+      <c r="G168" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="H168" s="78" t="s">
+        <v>513</v>
+      </c>
+      <c r="I168" s="75" t="s">
+        <v>510</v>
       </c>
       <c r="J168" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="K168" s="36"/>
+      <c r="K168" s="36" t="s">
+        <v>199</v>
+      </c>
       <c r="L168" s="36"/>
       <c r="M168" s="36" t="s">
         <v>60</v>
@@ -10764,7 +10799,7 @@
         <v>191</v>
       </c>
       <c r="S168" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T168" s="36" t="s">
         <v>189</v>
@@ -10786,27 +10821,29 @@
         <v>48</v>
       </c>
       <c r="D169" s="33" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="E169" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F169" s="35">
+      <c r="F169" s="77">
         <v>46031</v>
       </c>
-      <c r="G169" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="H169" s="35" t="s">
-        <v>433</v>
-      </c>
-      <c r="I169" s="40" t="s">
-        <v>435</v>
+      <c r="G169" s="81" t="s">
+        <v>515</v>
+      </c>
+      <c r="H169" s="79" t="s">
+        <v>514</v>
+      </c>
+      <c r="I169" s="75" t="s">
+        <v>510</v>
       </c>
       <c r="J169" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="K169" s="36"/>
+      <c r="K169" s="36" t="s">
+        <v>199</v>
+      </c>
       <c r="L169" s="36"/>
       <c r="M169" s="36" t="s">
         <v>60</v>
@@ -10825,7 +10862,7 @@
         <v>191</v>
       </c>
       <c r="S169" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T169" s="36" t="s">
         <v>189</v>
@@ -10847,7 +10884,7 @@
         <v>48</v>
       </c>
       <c r="D170" s="33" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="E170" s="41" t="s">
         <v>333</v>
@@ -10856,7 +10893,7 @@
         <v>46030</v>
       </c>
       <c r="G170" s="35" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="H170" s="35"/>
       <c r="I170" s="40"/>
@@ -10882,7 +10919,7 @@
         <v>191</v>
       </c>
       <c r="S170" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T170" s="36" t="s">
         <v>189</v>
@@ -10913,7 +10950,7 @@
         <v>46017</v>
       </c>
       <c r="G171" s="35" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="H171" s="35" t="s">
         <v>352</v>
@@ -11073,7 +11110,7 @@
         <v>46017</v>
       </c>
       <c r="G175" s="35" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="H175" s="35" t="s">
         <v>354</v>
@@ -11122,13 +11159,13 @@
         <v>46018</v>
       </c>
       <c r="G176" s="35" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="H176" s="35" t="s">
         <v>358</v>
       </c>
       <c r="I176" s="40" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="J176" s="36" t="s">
         <v>60</v>
@@ -11152,7 +11189,7 @@
         <v>191</v>
       </c>
       <c r="S176" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T176" s="36" t="s">
         <v>189</v>
@@ -11182,16 +11219,16 @@
         <v>332</v>
       </c>
       <c r="F177" s="35">
-        <v>46018</v>
+        <v>46049</v>
       </c>
       <c r="G177" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="H177" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="I177" s="40" t="s">
         <v>499</v>
-      </c>
-      <c r="H177" s="35" t="s">
-        <v>360</v>
-      </c>
-      <c r="I177" s="40" t="s">
-        <v>455</v>
       </c>
       <c r="J177" s="36" t="s">
         <v>60</v>
@@ -11199,7 +11236,7 @@
       <c r="K177" s="36"/>
       <c r="L177" s="36"/>
       <c r="M177" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N177" s="36" t="s">
         <v>191</v>
@@ -11215,7 +11252,7 @@
         <v>191</v>
       </c>
       <c r="S177" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T177" s="36" t="s">
         <v>189</v>
@@ -11239,22 +11276,22 @@
         <v>48</v>
       </c>
       <c r="D178" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E178" s="41" t="s">
         <v>332</v>
       </c>
       <c r="F178" s="35">
-        <v>46018</v>
+        <v>46049</v>
       </c>
       <c r="G178" s="35" t="s">
         <v>500</v>
       </c>
       <c r="H178" s="35" t="s">
-        <v>362</v>
+        <v>501</v>
       </c>
       <c r="I178" s="40" t="s">
-        <v>456</v>
+        <v>502</v>
       </c>
       <c r="J178" s="36" t="s">
         <v>60</v>
@@ -11262,7 +11299,7 @@
       <c r="K178" s="36"/>
       <c r="L178" s="36"/>
       <c r="M178" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N178" s="36" t="s">
         <v>191</v>
@@ -11278,7 +11315,7 @@
         <v>191</v>
       </c>
       <c r="S178" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T178" s="36" t="s">
         <v>189</v>
@@ -11308,16 +11345,16 @@
         <v>332</v>
       </c>
       <c r="F179" s="35">
-        <v>46018</v>
+        <v>46049</v>
       </c>
       <c r="G179" s="35" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H179" s="35" t="s">
-        <v>363</v>
+        <v>504</v>
       </c>
       <c r="I179" s="40" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
       <c r="J179" s="36" t="s">
         <v>60</v>
@@ -11325,7 +11362,7 @@
       <c r="K179" s="36"/>
       <c r="L179" s="36"/>
       <c r="M179" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N179" s="36" t="s">
         <v>191</v>
@@ -11341,7 +11378,7 @@
         <v>191</v>
       </c>
       <c r="S179" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T179" s="36" t="s">
         <v>189</v>
@@ -11374,13 +11411,13 @@
         <v>46018</v>
       </c>
       <c r="G180" s="35" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="H180" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I180" s="40" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="J180" s="36" t="s">
         <v>60</v>
@@ -11404,7 +11441,7 @@
         <v>191</v>
       </c>
       <c r="S180" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T180" s="36" t="s">
         <v>189</v>
@@ -11437,13 +11474,13 @@
         <v>46018</v>
       </c>
       <c r="G181" s="35" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="H181" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I181" s="40" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="J181" s="36" t="s">
         <v>60</v>
@@ -11467,7 +11504,7 @@
         <v>191</v>
       </c>
       <c r="S181" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T181" s="36" t="s">
         <v>189</v>
@@ -11500,13 +11537,13 @@
         <v>46018</v>
       </c>
       <c r="G182" s="35" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="H182" s="35" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I182" s="40" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="J182" s="36" t="s">
         <v>60</v>
@@ -11530,7 +11567,7 @@
         <v>191</v>
       </c>
       <c r="S182" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T182" s="36" t="s">
         <v>189</v>
@@ -11560,16 +11597,16 @@
         <v>332</v>
       </c>
       <c r="F183" s="35">
-        <v>46018</v>
+        <v>46049</v>
       </c>
       <c r="G183" s="35" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H183" s="35" t="s">
-        <v>367</v>
+        <v>507</v>
       </c>
       <c r="I183" s="40" t="s">
-        <v>461</v>
+        <v>508</v>
       </c>
       <c r="J183" s="36" t="s">
         <v>60</v>
@@ -11577,7 +11614,7 @@
       <c r="K183" s="36"/>
       <c r="L183" s="36"/>
       <c r="M183" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N183" s="36" t="s">
         <v>191</v>
@@ -11593,7 +11630,7 @@
         <v>191</v>
       </c>
       <c r="S183" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T183" s="36" t="s">
         <v>189</v>
@@ -11626,13 +11663,13 @@
         <v>46018</v>
       </c>
       <c r="G184" s="35" t="s">
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="H184" s="35" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I184" s="40" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="J184" s="36" t="s">
         <v>60</v>
@@ -11656,7 +11693,7 @@
         <v>191</v>
       </c>
       <c r="S184" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T184" s="36" t="s">
         <v>189</v>
@@ -11689,13 +11726,13 @@
         <v>46018</v>
       </c>
       <c r="G185" s="35" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
       <c r="H185" s="35" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I185" s="40" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="J185" s="36" t="s">
         <v>60</v>
@@ -11719,7 +11756,7 @@
         <v>191</v>
       </c>
       <c r="S185" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T185" s="36" t="s">
         <v>189</v>
@@ -11752,13 +11789,13 @@
         <v>46018</v>
       </c>
       <c r="G186" s="35" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="H186" s="35" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I186" s="40" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="J186" s="36" t="s">
         <v>60</v>
@@ -11782,7 +11819,7 @@
         <v>191</v>
       </c>
       <c r="S186" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T186" s="36" t="s">
         <v>189</v>
@@ -11815,13 +11852,13 @@
         <v>46018</v>
       </c>
       <c r="G187" s="35" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="H187" s="35" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I187" s="40" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="J187" s="36" t="s">
         <v>60</v>
@@ -11845,7 +11882,7 @@
         <v>191</v>
       </c>
       <c r="S187" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T187" s="36" t="s">
         <v>189</v>
@@ -11878,13 +11915,13 @@
         <v>46018</v>
       </c>
       <c r="G188" s="35" t="s">
-        <v>510</v>
+        <v>476</v>
       </c>
       <c r="H188" s="35" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I188" s="40" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="J188" s="36" t="s">
         <v>60</v>
@@ -11908,7 +11945,7 @@
         <v>191</v>
       </c>
       <c r="S188" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T188" s="36" t="s">
         <v>189</v>
@@ -11941,13 +11978,13 @@
         <v>46018</v>
       </c>
       <c r="G189" s="35" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="H189" s="35" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I189" s="40" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="J189" s="36" t="s">
         <v>60</v>
@@ -11971,7 +12008,7 @@
         <v>191</v>
       </c>
       <c r="S189" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T189" s="36" t="s">
         <v>189</v>
@@ -12004,13 +12041,13 @@
         <v>46018</v>
       </c>
       <c r="G190" s="35" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
       <c r="H190" s="35" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I190" s="40" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="J190" s="36" t="s">
         <v>60</v>
@@ -12034,7 +12071,7 @@
         <v>191</v>
       </c>
       <c r="S190" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T190" s="36" t="s">
         <v>189</v>
@@ -12067,13 +12104,13 @@
         <v>46018</v>
       </c>
       <c r="G191" s="35" t="s">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="H191" s="35" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I191" s="40" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="J191" s="36" t="s">
         <v>60</v>
@@ -12097,7 +12134,7 @@
         <v>191</v>
       </c>
       <c r="S191" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T191" s="36" t="s">
         <v>189</v>
@@ -12121,7 +12158,7 @@
         <v>48</v>
       </c>
       <c r="D192" s="33" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E192" s="41" t="s">
         <v>332</v>
@@ -12130,13 +12167,13 @@
         <v>46018</v>
       </c>
       <c r="G192" s="35" t="s">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="H192" s="35" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I192" s="40" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="J192" s="36" t="s">
         <v>60</v>
@@ -12160,7 +12197,7 @@
         <v>191</v>
       </c>
       <c r="S192" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T192" s="36" t="s">
         <v>189</v>
@@ -12184,7 +12221,7 @@
         <v>48</v>
       </c>
       <c r="D193" s="33" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E193" s="41" t="s">
         <v>332</v>
@@ -12193,13 +12230,13 @@
         <v>46018</v>
       </c>
       <c r="G193" s="35" t="s">
-        <v>515</v>
+        <v>481</v>
       </c>
       <c r="H193" s="35" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I193" s="40" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="J193" s="36" t="s">
         <v>60</v>
@@ -12223,7 +12260,7 @@
         <v>191</v>
       </c>
       <c r="S193" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T193" s="36" t="s">
         <v>189</v>
@@ -15830,10 +15867,10 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -15853,7 +15890,7 @@
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K193</xm:sqref>
+          <xm:sqref>K10:K144 K147:K193</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15967,7 +16004,7 @@
         <v>471.47199999999998</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -15981,7 +16018,7 @@
         <v>448.44900000000001</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17992,21 +18029,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -18150,31 +18172,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18190,4 +18203,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GATEWAY/tarasoft/tarasoft_/45801/2.0/report-checklist.xlsx
+++ b/GATEWAY/tarasoft/tarasoft_/45801/2.0/report-checklist.xlsx
@@ -19,25 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$174</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataChecksum="oXWj5iU3LtnvLpdhFqszSz/X91q3fG5U5zC5TJKtiGw="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -74,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="518">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1439,18 +1420,9 @@
     <t>VALIDAZIONE_CDA2_RSA_CT08_KO</t>
   </si>
   <si>
-    <t>ff5893859fee1ff1d9add993ffd99a08</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT09_KO</t>
   </si>
   <si>
-    <t>6b97fb52545271717e74d3fa33dc5b2b</t>
-  </si>
-  <si>
-    <t>1b0dfb9feecd9d1f6d05619780fdebb4</t>
-  </si>
-  <si>
     <t>238366544401a5af2f68a2924b72abb5</t>
   </si>
   <si>
@@ -1460,9 +1432,6 @@
     <t>847a9f827cba82574887d87fd6ee3181</t>
   </si>
   <si>
-    <t>c3a4b129aab8ecb19e18bc91caeb79b1</t>
-  </si>
-  <si>
     <t>cc08bf4b5b609cd6343ddf1fafdbe584</t>
   </si>
   <si>
@@ -1520,18 +1489,6 @@
     <t>d5752852c2256166990db7f2300e0802</t>
   </si>
   <si>
-    <t>2e5fe0a8a5dd0ccc0cbe676ea46fc6be</t>
-  </si>
-  <si>
-    <t>62e77ae86bb600d57c68b3d0242743c9</t>
-  </si>
-  <si>
-    <t>9e4533243aca85b5c482f8caca650c50</t>
-  </si>
-  <si>
-    <t>575b07491762f0358e061ba738415070</t>
-  </si>
-  <si>
     <t>044b9ebd672cef670684353a0e58737e</t>
   </si>
   <si>
@@ -1562,9 +1519,6 @@
     <t>815620bdbf9e26999ad7e1a461fc5050</t>
   </si>
   <si>
-    <t>5b7a5aad9ff65603786a49db2d916851</t>
-  </si>
-  <si>
     <t>4d09839b11a460642b547bd68e11a9e2</t>
   </si>
   <si>
@@ -1649,262 +1603,295 @@
     <t>32,40,48,152,154,155,156,159,160,161,162,163,164,165,166,167,168,169,461,468,475</t>
   </si>
   <si>
-    <t>b0a671d964e6ce428906b636feb3c55a</t>
-  </si>
-  <si>
-    <t>2fed3da5ebeaba6ab7f63fab35b15109</t>
-  </si>
-  <si>
-    <t>5753e48983833947e7689639090336e0</t>
-  </si>
-  <si>
-    <t>5d0d1e438fd8d44b5252d8bcf01ca926</t>
-  </si>
-  <si>
     <t>ND</t>
   </si>
   <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.a33008399d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.7eda12b8c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.ce6695fc58^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.8d67ef64a1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.6f29b40453^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.6699cec040^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.79db1f9050^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.5ab384edaf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.c0f6aaf398^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.c9c5cc175c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.908715a8ec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.33a1839d67^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.ff4e7c7ad6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.148a87cdb8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.418cd14293^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.a0fca74644^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.838396e4f8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.acf021b9d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.2b9944c775^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.8549106554^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.9d76cd3aac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.dc1f25d8f1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.ed3f5f078a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.40334c83e5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.b0070ee7e9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.9c65fc9b96^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.89636a2fe9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-12-27T15:14:21Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T16:09:06Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T04:56:38Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:29:27Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:35:40Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:40:08Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:46:03Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:50:16Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:00:54Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:05:54Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:10:46Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:16:05Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:22:16Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:34:02Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:38:57Z</t>
+  </si>
+  <si>
+    <t>2026-01-08T10:26:05Z</t>
+  </si>
+  <si>
+    <t>2026-01-08T10:05:31Z</t>
+  </si>
+  <si>
+    <t>2025-12-26T16:01:45Z</t>
+  </si>
+  <si>
+    <t>2025-12-26T17:54:42Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T06:28:33Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T07:25:25Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T07:33:11Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T07:39:30Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T08:03:31Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:28:40Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:34:09Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:39:14Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:47:28Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:54:34Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:59:58Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T10:04:35Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T10:09:52Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T10:14:39Z</t>
+  </si>
+  <si>
+    <t>2026-01-27T05:48:49Z</t>
+  </si>
+  <si>
+    <t>844e981834214c2bfd10347e6b480e3c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.465f63e06a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T05:52:35Z</t>
+  </si>
+  <si>
+    <t>226362c83a608cc7bde6361e72e4a786</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.fb5d2a3763^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T05:57:23Z</t>
+  </si>
+  <si>
+    <t>078f2eb4ff4999a6c718ab123ebeb43f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.0f056693bf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T06:32:31Z</t>
+  </si>
+  <si>
+    <t>97236d3523edafd15acb566141b93891</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.376746e8fe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T06:44:50Z</t>
+  </si>
+  <si>
+    <t>adba16cad3937538fe749c8c1d3e6bbd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.1db0ad62ff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T08:43:31Z</t>
+  </si>
+  <si>
+    <t>7be4ad9b62f68df9ac52f8198ee68e64</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.2f9bd935b8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T08:48:58Z</t>
+  </si>
+  <si>
+    <t>3e4d98668a58d635fd43b4ba7caa1927</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.b91ffb9270^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T08:54:46Z</t>
+  </si>
+  <si>
+    <t>c76c96b43d7e3679bd35e6cebfe62c43</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.bd59e1b87b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T10:01:30Z</t>
+  </si>
+  <si>
+    <t>f1a24c7ad8b1793962edd240b63a28b3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.9263cf55d7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.a33008399d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.d56c6c83f9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.6456c4db14^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.1e2051b7af^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.6c607ff68e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.7eda12b8c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.ce6695fc58^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.8d67ef64a1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.6f29b40453^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.6699cec040^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.79db1f9050^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.5ab384edaf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.c0f6aaf398^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.c9c5cc175c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.908715a8ec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.fd1a32a339^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.33a1839d67^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.ff4e7c7ad6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.148a87cdb8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.7d4bc6c110^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.212c50a6d7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.2bba72f1f3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.418cd14293^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.a0fca74644^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.838396e4f8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.6113c6a4f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.acf021b9d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.2b9944c775^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.8549106554^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.9d76cd3aac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.dc1f25d8f1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.ed3f5f078a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.40334c83e5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.b0070ee7e9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.9c65fc9b96^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.89636a2fe9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-01-09T08:18:25Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T15:14:21Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T16:09:06Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T04:56:38Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:02:14Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:07:52Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:12:31Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:21:02Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:29:27Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:35:40Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:40:08Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:46:03Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:50:16Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:00:54Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:05:54Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:10:46Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:16:05Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:22:16Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:30:18Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:34:02Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:38:57Z</t>
-  </si>
-  <si>
-    <t>2026-01-09T08:51:28Z</t>
-  </si>
-  <si>
-    <t>2026-01-08T10:26:05Z</t>
-  </si>
-  <si>
-    <t>2026-01-08T10:05:31Z</t>
-  </si>
-  <si>
-    <t>2025-12-26T16:01:45Z</t>
-  </si>
-  <si>
-    <t>2025-12-26T17:54:42Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T06:28:33Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T06:54:21Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T07:03:41Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T07:12:04Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T07:25:25Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T07:33:11Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T07:39:30Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T07:55:56Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T08:03:31Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T09:28:40Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T09:34:09Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T09:39:14Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T09:47:28Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T09:54:34Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T09:59:58Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T10:04:35Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T10:09:52Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T10:14:39Z</t>
+    <t>2435d7bdd90485275a4100a26e76e714</t>
+  </si>
+  <si>
+    <t>2026-02-02T16:41:27Z</t>
+  </si>
+  <si>
+    <t>2026-02-02T16:47:03Z</t>
+  </si>
+  <si>
+    <t>241d494bb21f946e0e22fbf435aa64f3</t>
+  </si>
+  <si>
+    <t>2026-02-02T16:25:03Z</t>
+  </si>
+  <si>
+    <t>1d91168f682abc755dc34b0b96f27432</t>
+  </si>
+  <si>
+    <t>2026-02-02T16:33:28Z</t>
+  </si>
+  <si>
+    <t>7d76fdbbed91fbda87e5806a6a3bb822</t>
   </si>
 </sst>
 </file>
@@ -1914,11 +1901,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2033,6 +2027,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF242424"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2377,184 +2378,205 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -2627,9 +2649,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2853,8 +2872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4007,7 +4026,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.453125" customWidth="1"/>
     <col min="2" max="2" width="27.1796875" customWidth="1"/>
@@ -4026,6 +4045,7 @@
     <col min="21" max="21" width="36.453125" customWidth="1"/>
     <col min="22" max="22" width="39.26953125" customWidth="1"/>
     <col min="23" max="23" width="31.81640625" customWidth="1"/>
+    <col min="24" max="26" width="14.453125"/>
     <col min="27" max="27" width="30.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4051,14 +4071,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="69" t="s">
         <v>346</v>
       </c>
-      <c r="D2" s="61"/>
+      <c r="D2" s="68"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4079,14 +4099,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="69" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="D3" s="61"/>
+      <c r="D3" s="68"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4107,12 +4127,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="69" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="76" t="s">
         <v>348</v>
       </c>
-      <c r="D4" s="61"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4134,12 +4154,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76" t="s">
         <v>349</v>
       </c>
-      <c r="D5" s="61"/>
+      <c r="D5" s="68"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4160,8 +4180,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9314,27 +9334,29 @@
         <v>38</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E145" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F145" s="35">
-        <v>46031</v>
-      </c>
-      <c r="G145" s="35" t="s">
-        <v>472</v>
-      </c>
-      <c r="H145" s="35" t="s">
-        <v>430</v>
+      <c r="F145" s="59">
+        <v>46055</v>
+      </c>
+      <c r="G145" s="64" t="s">
+        <v>511</v>
+      </c>
+      <c r="H145" s="64" t="s">
+        <v>510</v>
       </c>
       <c r="I145" s="40" t="s">
-        <v>435</v>
+        <v>509</v>
       </c>
       <c r="J145" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="K145" s="36"/>
+      <c r="K145" s="58" t="s">
+        <v>199</v>
+      </c>
       <c r="L145" s="36"/>
       <c r="M145" s="36" t="s">
         <v>60</v>
@@ -9353,7 +9375,7 @@
         <v>191</v>
       </c>
       <c r="S145" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T145" s="36" t="s">
         <v>189</v>
@@ -9375,27 +9397,29 @@
         <v>38</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E146" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F146" s="35">
-        <v>46031</v>
-      </c>
-      <c r="G146" s="35" t="s">
-        <v>472</v>
-      </c>
-      <c r="H146" s="35" t="s">
-        <v>431</v>
-      </c>
-      <c r="I146" s="40" t="s">
-        <v>435</v>
+      <c r="F146" s="60">
+        <v>46055</v>
+      </c>
+      <c r="G146" s="64" t="s">
+        <v>512</v>
+      </c>
+      <c r="H146" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="I146" s="61" t="s">
+        <v>509</v>
       </c>
       <c r="J146" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="K146" s="36"/>
+      <c r="K146" s="58" t="s">
+        <v>199</v>
+      </c>
       <c r="L146" s="36"/>
       <c r="M146" s="36" t="s">
         <v>60</v>
@@ -9414,7 +9438,7 @@
         <v>191</v>
       </c>
       <c r="S146" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T146" s="36" t="s">
         <v>189</v>
@@ -9436,7 +9460,7 @@
         <v>38</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E147" s="41" t="s">
         <v>333</v>
@@ -9445,7 +9469,7 @@
         <v>46030</v>
       </c>
       <c r="G147" s="35" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="H147" s="35"/>
       <c r="I147" s="40"/>
@@ -9471,7 +9495,7 @@
         <v>191</v>
       </c>
       <c r="S147" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T147" s="36" t="s">
         <v>189</v>
@@ -9493,7 +9517,7 @@
         <v>38</v>
       </c>
       <c r="D148" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E148" s="41" t="s">
         <v>332</v>
@@ -9502,13 +9526,13 @@
         <v>46018</v>
       </c>
       <c r="G148" s="35" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="H148" s="35" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I148" s="40" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J148" s="36" t="s">
         <v>60</v>
@@ -9542,7 +9566,7 @@
         <v>38</v>
       </c>
       <c r="D149" s="33" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E149" s="41" t="s">
         <v>332</v>
@@ -9551,13 +9575,13 @@
         <v>46018</v>
       </c>
       <c r="G149" s="35" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="H149" s="35" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I149" s="40" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J149" s="36" t="s">
         <v>60</v>
@@ -9591,7 +9615,7 @@
         <v>38</v>
       </c>
       <c r="D150" s="33" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E150" s="41" t="s">
         <v>332</v>
@@ -9600,13 +9624,13 @@
         <v>46019</v>
       </c>
       <c r="G150" s="35" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="H150" s="35" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I150" s="40" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="J150" s="36" t="s">
         <v>60</v>
@@ -9630,7 +9654,7 @@
         <v>191</v>
       </c>
       <c r="S150" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T150" s="36" t="s">
         <v>189</v>
@@ -9654,22 +9678,22 @@
         <v>38</v>
       </c>
       <c r="D151" s="33" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E151" s="41" t="s">
         <v>332</v>
       </c>
       <c r="F151" s="35">
-        <v>46019</v>
+        <v>46049</v>
       </c>
       <c r="G151" s="35" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="H151" s="35" t="s">
-        <v>387</v>
+        <v>483</v>
       </c>
       <c r="I151" s="40" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="J151" s="36" t="s">
         <v>60</v>
@@ -9677,7 +9701,7 @@
       <c r="K151" s="36"/>
       <c r="L151" s="36"/>
       <c r="M151" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N151" s="36" t="s">
         <v>191</v>
@@ -9693,7 +9717,7 @@
         <v>191</v>
       </c>
       <c r="S151" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T151" s="36" t="s">
         <v>189</v>
@@ -9717,22 +9741,22 @@
         <v>38</v>
       </c>
       <c r="D152" s="33" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E152" s="41" t="s">
         <v>332</v>
       </c>
       <c r="F152" s="35">
-        <v>46019</v>
+        <v>46049</v>
       </c>
       <c r="G152" s="35" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="H152" s="35" t="s">
-        <v>388</v>
+        <v>486</v>
       </c>
       <c r="I152" s="40" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="J152" s="36" t="s">
         <v>60</v>
@@ -9740,7 +9764,7 @@
       <c r="K152" s="36"/>
       <c r="L152" s="36"/>
       <c r="M152" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N152" s="36" t="s">
         <v>191</v>
@@ -9756,7 +9780,7 @@
         <v>191</v>
       </c>
       <c r="S152" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T152" s="36" t="s">
         <v>189</v>
@@ -9780,22 +9804,22 @@
         <v>38</v>
       </c>
       <c r="D153" s="33" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="E153" s="41" t="s">
         <v>332</v>
       </c>
       <c r="F153" s="35">
-        <v>46019</v>
+        <v>46049</v>
       </c>
       <c r="G153" s="35" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="H153" s="35" t="s">
-        <v>389</v>
+        <v>489</v>
       </c>
       <c r="I153" s="40" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="J153" s="36" t="s">
         <v>60</v>
@@ -9803,7 +9827,7 @@
       <c r="K153" s="36"/>
       <c r="L153" s="36"/>
       <c r="M153" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N153" s="36" t="s">
         <v>191</v>
@@ -9819,7 +9843,7 @@
         <v>191</v>
       </c>
       <c r="S153" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T153" s="36" t="s">
         <v>189</v>
@@ -9843,22 +9867,22 @@
         <v>38</v>
       </c>
       <c r="D154" s="33" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E154" s="41" t="s">
         <v>332</v>
       </c>
       <c r="F154" s="35">
-        <v>46019</v>
+        <v>46049</v>
       </c>
       <c r="G154" s="35" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="H154" s="35" t="s">
-        <v>390</v>
+        <v>492</v>
       </c>
       <c r="I154" s="40" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="J154" s="36" t="s">
         <v>60</v>
@@ -9866,7 +9890,7 @@
       <c r="K154" s="36"/>
       <c r="L154" s="36"/>
       <c r="M154" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N154" s="36" t="s">
         <v>191</v>
@@ -9882,7 +9906,7 @@
         <v>191</v>
       </c>
       <c r="S154" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T154" s="36" t="s">
         <v>189</v>
@@ -9906,7 +9930,7 @@
         <v>38</v>
       </c>
       <c r="D155" s="33" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E155" s="41" t="s">
         <v>332</v>
@@ -9915,13 +9939,13 @@
         <v>46019</v>
       </c>
       <c r="G155" s="35" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="H155" s="35" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="I155" s="40" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="J155" s="36" t="s">
         <v>60</v>
@@ -9945,7 +9969,7 @@
         <v>191</v>
       </c>
       <c r="S155" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T155" s="36" t="s">
         <v>189</v>
@@ -9969,7 +9993,7 @@
         <v>38</v>
       </c>
       <c r="D156" s="33" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="E156" s="41" t="s">
         <v>332</v>
@@ -9978,13 +10002,13 @@
         <v>46019</v>
       </c>
       <c r="G156" s="35" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="H156" s="35" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="I156" s="40" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="J156" s="36" t="s">
         <v>60</v>
@@ -10008,7 +10032,7 @@
         <v>191</v>
       </c>
       <c r="S156" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T156" s="36" t="s">
         <v>189</v>
@@ -10032,7 +10056,7 @@
         <v>38</v>
       </c>
       <c r="D157" s="33" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E157" s="41" t="s">
         <v>332</v>
@@ -10041,13 +10065,13 @@
         <v>46019</v>
       </c>
       <c r="G157" s="35" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="H157" s="35" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="I157" s="40" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="J157" s="36" t="s">
         <v>60</v>
@@ -10071,7 +10095,7 @@
         <v>191</v>
       </c>
       <c r="S157" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T157" s="36" t="s">
         <v>189</v>
@@ -10095,7 +10119,7 @@
         <v>38</v>
       </c>
       <c r="D158" s="33" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="E158" s="41" t="s">
         <v>332</v>
@@ -10104,13 +10128,13 @@
         <v>46019</v>
       </c>
       <c r="G158" s="35" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="H158" s="35" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="I158" s="40" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="J158" s="36" t="s">
         <v>60</v>
@@ -10134,7 +10158,7 @@
         <v>191</v>
       </c>
       <c r="S158" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T158" s="36" t="s">
         <v>189</v>
@@ -10158,7 +10182,7 @@
         <v>38</v>
       </c>
       <c r="D159" s="33" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E159" s="41" t="s">
         <v>332</v>
@@ -10167,13 +10191,13 @@
         <v>46019</v>
       </c>
       <c r="G159" s="35" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="H159" s="35" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I159" s="40" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="J159" s="36" t="s">
         <v>60</v>
@@ -10197,7 +10221,7 @@
         <v>191</v>
       </c>
       <c r="S159" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T159" s="36" t="s">
         <v>189</v>
@@ -10221,7 +10245,7 @@
         <v>38</v>
       </c>
       <c r="D160" s="33" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E160" s="41" t="s">
         <v>332</v>
@@ -10230,13 +10254,13 @@
         <v>46019</v>
       </c>
       <c r="G160" s="35" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="H160" s="35" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="I160" s="40" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="J160" s="36" t="s">
         <v>60</v>
@@ -10260,7 +10284,7 @@
         <v>191</v>
       </c>
       <c r="S160" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T160" s="36" t="s">
         <v>189</v>
@@ -10284,7 +10308,7 @@
         <v>38</v>
       </c>
       <c r="D161" s="33" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="E161" s="41" t="s">
         <v>332</v>
@@ -10293,13 +10317,13 @@
         <v>46019</v>
       </c>
       <c r="G161" s="35" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="H161" s="35" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="I161" s="40" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="J161" s="36" t="s">
         <v>60</v>
@@ -10323,7 +10347,7 @@
         <v>191</v>
       </c>
       <c r="S161" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T161" s="36" t="s">
         <v>189</v>
@@ -10347,7 +10371,7 @@
         <v>38</v>
       </c>
       <c r="D162" s="33" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="E162" s="41" t="s">
         <v>332</v>
@@ -10356,13 +10380,13 @@
         <v>46019</v>
       </c>
       <c r="G162" s="35" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="H162" s="35" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="I162" s="40" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="J162" s="36" t="s">
         <v>60</v>
@@ -10386,7 +10410,7 @@
         <v>191</v>
       </c>
       <c r="S162" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T162" s="36" t="s">
         <v>189</v>
@@ -10410,7 +10434,7 @@
         <v>38</v>
       </c>
       <c r="D163" s="33" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="E163" s="41" t="s">
         <v>332</v>
@@ -10419,13 +10443,13 @@
         <v>46019</v>
       </c>
       <c r="G163" s="35" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="H163" s="35" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="I163" s="40" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="J163" s="36" t="s">
         <v>60</v>
@@ -10449,7 +10473,7 @@
         <v>191</v>
       </c>
       <c r="S163" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T163" s="36" t="s">
         <v>189</v>
@@ -10473,7 +10497,7 @@
         <v>38</v>
       </c>
       <c r="D164" s="33" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E164" s="41" t="s">
         <v>332</v>
@@ -10482,13 +10506,13 @@
         <v>46019</v>
       </c>
       <c r="G164" s="35" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="H164" s="35" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="I164" s="40" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="J164" s="36" t="s">
         <v>60</v>
@@ -10512,7 +10536,7 @@
         <v>191</v>
       </c>
       <c r="S164" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T164" s="36" t="s">
         <v>189</v>
@@ -10536,22 +10560,22 @@
         <v>38</v>
       </c>
       <c r="D165" s="33" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E165" s="41" t="s">
         <v>332</v>
       </c>
       <c r="F165" s="35">
-        <v>46019</v>
+        <v>46049</v>
       </c>
       <c r="G165" s="35" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H165" s="35" t="s">
-        <v>401</v>
+        <v>495</v>
       </c>
       <c r="I165" s="40" t="s">
-        <v>451</v>
+        <v>496</v>
       </c>
       <c r="J165" s="36" t="s">
         <v>60</v>
@@ -10559,7 +10583,7 @@
       <c r="K165" s="36"/>
       <c r="L165" s="36"/>
       <c r="M165" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N165" s="36" t="s">
         <v>191</v>
@@ -10575,7 +10599,7 @@
         <v>191</v>
       </c>
       <c r="S165" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T165" s="36" t="s">
         <v>189</v>
@@ -10599,7 +10623,7 @@
         <v>38</v>
       </c>
       <c r="D166" s="33" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E166" s="41" t="s">
         <v>332</v>
@@ -10608,13 +10632,13 @@
         <v>46019</v>
       </c>
       <c r="G166" s="35" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="H166" s="35" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="I166" s="40" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="J166" s="36" t="s">
         <v>60</v>
@@ -10638,7 +10662,7 @@
         <v>191</v>
       </c>
       <c r="S166" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T166" s="36" t="s">
         <v>189</v>
@@ -10662,7 +10686,7 @@
         <v>38</v>
       </c>
       <c r="D167" s="33" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="E167" s="41" t="s">
         <v>332</v>
@@ -10671,13 +10695,13 @@
         <v>46019</v>
       </c>
       <c r="G167" s="35" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="H167" s="35" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I167" s="40" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="J167" s="36" t="s">
         <v>60</v>
@@ -10701,7 +10725,7 @@
         <v>191</v>
       </c>
       <c r="S167" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T167" s="36" t="s">
         <v>189</v>
@@ -10725,27 +10749,29 @@
         <v>48</v>
       </c>
       <c r="D168" s="33" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E168" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F168" s="35">
-        <v>46031</v>
-      </c>
-      <c r="G168" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="H168" s="35" t="s">
-        <v>432</v>
-      </c>
-      <c r="I168" s="40" t="s">
-        <v>435</v>
+      <c r="F168" s="62">
+        <v>46055</v>
+      </c>
+      <c r="G168" s="64" t="s">
+        <v>514</v>
+      </c>
+      <c r="H168" s="64" t="s">
+        <v>515</v>
+      </c>
+      <c r="I168" s="61" t="s">
+        <v>509</v>
       </c>
       <c r="J168" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="K168" s="36"/>
+      <c r="K168" s="36" t="s">
+        <v>199</v>
+      </c>
       <c r="L168" s="36"/>
       <c r="M168" s="36" t="s">
         <v>60</v>
@@ -10764,7 +10790,7 @@
         <v>191</v>
       </c>
       <c r="S168" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T168" s="36" t="s">
         <v>189</v>
@@ -10786,27 +10812,29 @@
         <v>48</v>
       </c>
       <c r="D169" s="33" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="E169" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F169" s="35">
-        <v>46031</v>
-      </c>
-      <c r="G169" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="H169" s="35" t="s">
-        <v>433</v>
-      </c>
-      <c r="I169" s="40" t="s">
-        <v>435</v>
+      <c r="F169" s="63">
+        <v>46055</v>
+      </c>
+      <c r="G169" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="H169" s="64" t="s">
+        <v>517</v>
+      </c>
+      <c r="I169" s="61" t="s">
+        <v>509</v>
       </c>
       <c r="J169" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="K169" s="36"/>
+      <c r="K169" s="36" t="s">
+        <v>199</v>
+      </c>
       <c r="L169" s="36"/>
       <c r="M169" s="36" t="s">
         <v>60</v>
@@ -10825,7 +10853,7 @@
         <v>191</v>
       </c>
       <c r="S169" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T169" s="36" t="s">
         <v>189</v>
@@ -10847,7 +10875,7 @@
         <v>48</v>
       </c>
       <c r="D170" s="33" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="E170" s="41" t="s">
         <v>333</v>
@@ -10856,7 +10884,7 @@
         <v>46030</v>
       </c>
       <c r="G170" s="35" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="H170" s="35"/>
       <c r="I170" s="40"/>
@@ -10882,7 +10910,7 @@
         <v>191</v>
       </c>
       <c r="S170" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T170" s="36" t="s">
         <v>189</v>
@@ -10913,7 +10941,7 @@
         <v>46017</v>
       </c>
       <c r="G171" s="35" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="H171" s="35" t="s">
         <v>352</v>
@@ -11073,7 +11101,7 @@
         <v>46017</v>
       </c>
       <c r="G175" s="35" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="H175" s="35" t="s">
         <v>354</v>
@@ -11122,13 +11150,13 @@
         <v>46018</v>
       </c>
       <c r="G176" s="35" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="H176" s="35" t="s">
         <v>358</v>
       </c>
       <c r="I176" s="40" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="J176" s="36" t="s">
         <v>60</v>
@@ -11152,7 +11180,7 @@
         <v>191</v>
       </c>
       <c r="S176" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T176" s="36" t="s">
         <v>189</v>
@@ -11182,16 +11210,16 @@
         <v>332</v>
       </c>
       <c r="F177" s="35">
-        <v>46018</v>
+        <v>46049</v>
       </c>
       <c r="G177" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="H177" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="I177" s="40" t="s">
         <v>499</v>
-      </c>
-      <c r="H177" s="35" t="s">
-        <v>360</v>
-      </c>
-      <c r="I177" s="40" t="s">
-        <v>455</v>
       </c>
       <c r="J177" s="36" t="s">
         <v>60</v>
@@ -11199,7 +11227,7 @@
       <c r="K177" s="36"/>
       <c r="L177" s="36"/>
       <c r="M177" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N177" s="36" t="s">
         <v>191</v>
@@ -11215,7 +11243,7 @@
         <v>191</v>
       </c>
       <c r="S177" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T177" s="36" t="s">
         <v>189</v>
@@ -11239,22 +11267,22 @@
         <v>48</v>
       </c>
       <c r="D178" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E178" s="41" t="s">
         <v>332</v>
       </c>
       <c r="F178" s="35">
-        <v>46018</v>
+        <v>46049</v>
       </c>
       <c r="G178" s="35" t="s">
         <v>500</v>
       </c>
       <c r="H178" s="35" t="s">
-        <v>362</v>
+        <v>501</v>
       </c>
       <c r="I178" s="40" t="s">
-        <v>456</v>
+        <v>502</v>
       </c>
       <c r="J178" s="36" t="s">
         <v>60</v>
@@ -11262,7 +11290,7 @@
       <c r="K178" s="36"/>
       <c r="L178" s="36"/>
       <c r="M178" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N178" s="36" t="s">
         <v>191</v>
@@ -11278,7 +11306,7 @@
         <v>191</v>
       </c>
       <c r="S178" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T178" s="36" t="s">
         <v>189</v>
@@ -11308,16 +11336,16 @@
         <v>332</v>
       </c>
       <c r="F179" s="35">
-        <v>46018</v>
+        <v>46049</v>
       </c>
       <c r="G179" s="35" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H179" s="35" t="s">
-        <v>363</v>
+        <v>504</v>
       </c>
       <c r="I179" s="40" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
       <c r="J179" s="36" t="s">
         <v>60</v>
@@ -11325,7 +11353,7 @@
       <c r="K179" s="36"/>
       <c r="L179" s="36"/>
       <c r="M179" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N179" s="36" t="s">
         <v>191</v>
@@ -11341,7 +11369,7 @@
         <v>191</v>
       </c>
       <c r="S179" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T179" s="36" t="s">
         <v>189</v>
@@ -11374,13 +11402,13 @@
         <v>46018</v>
       </c>
       <c r="G180" s="35" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="H180" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I180" s="40" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="J180" s="36" t="s">
         <v>60</v>
@@ -11404,7 +11432,7 @@
         <v>191</v>
       </c>
       <c r="S180" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T180" s="36" t="s">
         <v>189</v>
@@ -11437,13 +11465,13 @@
         <v>46018</v>
       </c>
       <c r="G181" s="35" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="H181" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I181" s="40" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="J181" s="36" t="s">
         <v>60</v>
@@ -11467,7 +11495,7 @@
         <v>191</v>
       </c>
       <c r="S181" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T181" s="36" t="s">
         <v>189</v>
@@ -11500,13 +11528,13 @@
         <v>46018</v>
       </c>
       <c r="G182" s="35" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="H182" s="35" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I182" s="40" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="J182" s="36" t="s">
         <v>60</v>
@@ -11530,7 +11558,7 @@
         <v>191</v>
       </c>
       <c r="S182" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T182" s="36" t="s">
         <v>189</v>
@@ -11560,16 +11588,16 @@
         <v>332</v>
       </c>
       <c r="F183" s="35">
-        <v>46018</v>
+        <v>46049</v>
       </c>
       <c r="G183" s="35" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H183" s="35" t="s">
-        <v>367</v>
+        <v>507</v>
       </c>
       <c r="I183" s="40" t="s">
-        <v>461</v>
+        <v>508</v>
       </c>
       <c r="J183" s="36" t="s">
         <v>60</v>
@@ -11577,7 +11605,7 @@
       <c r="K183" s="36"/>
       <c r="L183" s="36"/>
       <c r="M183" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N183" s="36" t="s">
         <v>191</v>
@@ -11593,7 +11621,7 @@
         <v>191</v>
       </c>
       <c r="S183" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T183" s="36" t="s">
         <v>189</v>
@@ -11626,13 +11654,13 @@
         <v>46018</v>
       </c>
       <c r="G184" s="35" t="s">
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="H184" s="35" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I184" s="40" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="J184" s="36" t="s">
         <v>60</v>
@@ -11656,7 +11684,7 @@
         <v>191</v>
       </c>
       <c r="S184" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T184" s="36" t="s">
         <v>189</v>
@@ -11689,13 +11717,13 @@
         <v>46018</v>
       </c>
       <c r="G185" s="35" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
       <c r="H185" s="35" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I185" s="40" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="J185" s="36" t="s">
         <v>60</v>
@@ -11719,7 +11747,7 @@
         <v>191</v>
       </c>
       <c r="S185" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T185" s="36" t="s">
         <v>189</v>
@@ -11752,13 +11780,13 @@
         <v>46018</v>
       </c>
       <c r="G186" s="35" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="H186" s="35" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I186" s="40" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="J186" s="36" t="s">
         <v>60</v>
@@ -11782,7 +11810,7 @@
         <v>191</v>
       </c>
       <c r="S186" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T186" s="36" t="s">
         <v>189</v>
@@ -11815,13 +11843,13 @@
         <v>46018</v>
       </c>
       <c r="G187" s="35" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="H187" s="35" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I187" s="40" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="J187" s="36" t="s">
         <v>60</v>
@@ -11845,7 +11873,7 @@
         <v>191</v>
       </c>
       <c r="S187" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T187" s="36" t="s">
         <v>189</v>
@@ -11878,13 +11906,13 @@
         <v>46018</v>
       </c>
       <c r="G188" s="35" t="s">
-        <v>510</v>
+        <v>476</v>
       </c>
       <c r="H188" s="35" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I188" s="40" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="J188" s="36" t="s">
         <v>60</v>
@@ -11908,7 +11936,7 @@
         <v>191</v>
       </c>
       <c r="S188" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T188" s="36" t="s">
         <v>189</v>
@@ -11941,13 +11969,13 @@
         <v>46018</v>
       </c>
       <c r="G189" s="35" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="H189" s="35" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I189" s="40" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="J189" s="36" t="s">
         <v>60</v>
@@ -11971,7 +11999,7 @@
         <v>191</v>
       </c>
       <c r="S189" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T189" s="36" t="s">
         <v>189</v>
@@ -12004,13 +12032,13 @@
         <v>46018</v>
       </c>
       <c r="G190" s="35" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
       <c r="H190" s="35" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I190" s="40" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="J190" s="36" t="s">
         <v>60</v>
@@ -12034,7 +12062,7 @@
         <v>191</v>
       </c>
       <c r="S190" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T190" s="36" t="s">
         <v>189</v>
@@ -12067,13 +12095,13 @@
         <v>46018</v>
       </c>
       <c r="G191" s="35" t="s">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="H191" s="35" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I191" s="40" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="J191" s="36" t="s">
         <v>60</v>
@@ -12097,7 +12125,7 @@
         <v>191</v>
       </c>
       <c r="S191" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T191" s="36" t="s">
         <v>189</v>
@@ -12121,7 +12149,7 @@
         <v>48</v>
       </c>
       <c r="D192" s="33" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E192" s="41" t="s">
         <v>332</v>
@@ -12130,13 +12158,13 @@
         <v>46018</v>
       </c>
       <c r="G192" s="35" t="s">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="H192" s="35" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I192" s="40" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="J192" s="36" t="s">
         <v>60</v>
@@ -12160,7 +12188,7 @@
         <v>191</v>
       </c>
       <c r="S192" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T192" s="36" t="s">
         <v>189</v>
@@ -12184,7 +12212,7 @@
         <v>48</v>
       </c>
       <c r="D193" s="33" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E193" s="41" t="s">
         <v>332</v>
@@ -12193,13 +12221,13 @@
         <v>46018</v>
       </c>
       <c r="G193" s="35" t="s">
-        <v>515</v>
+        <v>481</v>
       </c>
       <c r="H193" s="35" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I193" s="40" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="J193" s="36" t="s">
         <v>60</v>
@@ -12223,7 +12251,7 @@
         <v>191</v>
       </c>
       <c r="S193" s="36" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T193" s="36" t="s">
         <v>189</v>
@@ -15830,10 +15858,10 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -15853,7 +15881,7 @@
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K193</xm:sqref>
+          <xm:sqref>K10:K144 K147:K193</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15967,7 +15995,7 @@
         <v>471.47199999999998</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -15981,7 +16009,7 @@
         <v>448.44900000000001</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17992,21 +18020,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -18150,31 +18163,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18190,4 +18194,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GATEWAY/tarasoft/tarasoft_/45801/2.0/report-checklist.xlsx
+++ b/GATEWAY/tarasoft/tarasoft_/45801/2.0/report-checklist.xlsx
@@ -4001,7 +4001,7 @@
   <dimension ref="A1:W731"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight"/>
@@ -17992,21 +17992,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -18150,31 +18135,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18190,4 +18166,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GATEWAY/tarasoft/tarasoft_/45801/2.0/report-checklist.xlsx
+++ b/GATEWAY/tarasoft/tarasoft_/45801/2.0/report-checklist.xlsx
@@ -19,25 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$174</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataChecksum="oXWj5iU3LtnvLpdhFqszSz/X91q3fG5U5zC5TJKtiGw="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -74,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="518">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1403,508 +1384,514 @@
     <t>subject_application_id:45801</t>
   </si>
   <si>
+    <t>subject_application_version:2.0</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT24_OK</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT25_OK</t>
+  </si>
+  <si>
+    <t>c6754f133aa8a4965f44a4c104032329</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.f04de7fa7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>9cbc7fc4a304d9ca41bd516b0058d76a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.cbcf1aca31^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>ALLINEAMENTO DB CON SISS LOMBARDIA</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT06_KO</t>
+  </si>
+  <si>
+    <t>bf45ac519b7edf50086ba8e235adcbd7</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT08_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT09_KO</t>
+  </si>
+  <si>
+    <t>238366544401a5af2f68a2924b72abb5</t>
+  </si>
+  <si>
+    <t>2980f228441067222227d755cbf34877</t>
+  </si>
+  <si>
+    <t>847a9f827cba82574887d87fd6ee3181</t>
+  </si>
+  <si>
+    <t>cc08bf4b5b609cd6343ddf1fafdbe584</t>
+  </si>
+  <si>
+    <t>582cfe372aaaba52a1d798a0ac601d2c</t>
+  </si>
+  <si>
+    <t>8fe29cc3ec7e1f9ea69f4f55db36f7ef</t>
+  </si>
+  <si>
+    <t>fed47ddcb943c6c14eba4b5624ce893c</t>
+  </si>
+  <si>
+    <t>9c2c30dfe92ab64b131b003091e243fa</t>
+  </si>
+  <si>
+    <t>4243077c7f2e640a36550f7838b03cd4</t>
+  </si>
+  <si>
+    <t>ad29d3d46849277f7e7bc88816a310a5</t>
+  </si>
+  <si>
+    <t>ddeb775ab5fb0e6ba2265fe5ce7b7021</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT27_KO</t>
+  </si>
+  <si>
+    <t>ec8c474898bf854de2f2b718991fea3f</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT28_KO</t>
+  </si>
+  <si>
+    <t>5ec7a6966eeea9a88d005025a1296617</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT25_OK</t>
+  </si>
+  <si>
+    <t>9a56d9d564da1168781347d26c091dc5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.1c373e6879^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT26_OK</t>
+  </si>
+  <si>
+    <t>3383d2f8fa6a422d67eaad9314253f10</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.c7e3643747^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>d5752852c2256166990db7f2300e0802</t>
+  </si>
+  <si>
+    <t>044b9ebd672cef670684353a0e58737e</t>
+  </si>
+  <si>
+    <t>ca285b08f2cb0e73a3ed1062db4bcb6b</t>
+  </si>
+  <si>
+    <t>b2f7b90077fdd78b46524e868149f832</t>
+  </si>
+  <si>
+    <t>5541890fc29641380380878a89921dc1</t>
+  </si>
+  <si>
+    <t>fbb71cd12c852d3f596c15bc557051c0</t>
+  </si>
+  <si>
+    <t>4053f3a389432c418b05be2fb5e7e303</t>
+  </si>
+  <si>
+    <t>74bf1964b244be0af2753fc5b4315c2e</t>
+  </si>
+  <si>
+    <t>c1e1143094c73df32a9a336f369b0891</t>
+  </si>
+  <si>
+    <t>4cb3162e4e6c8c8489e72c4b320a403c</t>
+  </si>
+  <si>
+    <t>815620bdbf9e26999ad7e1a461fc5050</t>
+  </si>
+  <si>
+    <t>4d09839b11a460642b547bd68e11a9e2</t>
+  </si>
+  <si>
+    <t>90b18d2a0f6ddef1c545137c611cc1f2</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT06_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT08_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT09_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT10_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT11_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT13_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT14_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT15_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT16_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT17_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT18_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT19_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT20_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT21_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT22_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT23_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT24_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT27_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_RAD_TIMEOUT</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_RSA_TIMEOUT</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
+  </si>
+  <si>
+    <t>31,39,47,76,78,79,80,81,83,84,85,86,87,88,89,90,91,92,93,462,474</t>
+  </si>
+  <si>
+    <t>32,40,48,152,154,155,156,159,160,161,162,163,164,165,166,167,168,169,461,468,475</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.a33008399d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.7eda12b8c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.ce6695fc58^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.8d67ef64a1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.6f29b40453^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.6699cec040^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.79db1f9050^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.5ab384edaf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.c0f6aaf398^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.c9c5cc175c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.908715a8ec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.33a1839d67^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.ff4e7c7ad6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.148a87cdb8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.418cd14293^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.a0fca74644^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.838396e4f8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.acf021b9d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.2b9944c775^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.8549106554^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.9d76cd3aac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.dc1f25d8f1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.ed3f5f078a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.40334c83e5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.b0070ee7e9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.9c65fc9b96^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.89636a2fe9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-12-27T15:14:21Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T16:09:06Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T04:56:38Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:29:27Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:35:40Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:40:08Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:46:03Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T05:50:16Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:00:54Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:05:54Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:10:46Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:16:05Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:22:16Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:34:02Z</t>
+  </si>
+  <si>
+    <t>2025-12-28T06:38:57Z</t>
+  </si>
+  <si>
+    <t>2026-01-08T10:26:05Z</t>
+  </si>
+  <si>
+    <t>2026-01-08T10:05:31Z</t>
+  </si>
+  <si>
+    <t>2025-12-26T16:01:45Z</t>
+  </si>
+  <si>
+    <t>2025-12-26T17:54:42Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T06:28:33Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T07:25:25Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T07:33:11Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T07:39:30Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T08:03:31Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:28:40Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:34:09Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:39:14Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:47:28Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:54:34Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T09:59:58Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T10:04:35Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T10:09:52Z</t>
+  </si>
+  <si>
+    <t>2025-12-27T10:14:39Z</t>
+  </si>
+  <si>
+    <t>2026-01-27T05:48:49Z</t>
+  </si>
+  <si>
+    <t>844e981834214c2bfd10347e6b480e3c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.465f63e06a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T05:52:35Z</t>
+  </si>
+  <si>
+    <t>226362c83a608cc7bde6361e72e4a786</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.fb5d2a3763^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T05:57:23Z</t>
+  </si>
+  <si>
+    <t>078f2eb4ff4999a6c718ab123ebeb43f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.0f056693bf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T06:32:31Z</t>
+  </si>
+  <si>
+    <t>97236d3523edafd15acb566141b93891</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.376746e8fe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T06:44:50Z</t>
+  </si>
+  <si>
+    <t>adba16cad3937538fe749c8c1d3e6bbd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.1db0ad62ff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T08:43:31Z</t>
+  </si>
+  <si>
+    <t>7be4ad9b62f68df9ac52f8198ee68e64</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.2f9bd935b8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T08:48:58Z</t>
+  </si>
+  <si>
+    <t>3e4d98668a58d635fd43b4ba7caa1927</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.b91ffb9270^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T08:54:46Z</t>
+  </si>
+  <si>
+    <t>c76c96b43d7e3679bd35e6cebfe62c43</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.bd59e1b87b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-27T10:01:30Z</t>
+  </si>
+  <si>
+    <t>f1a24c7ad8b1793962edd240b63a28b3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.9263cf55d7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>2435d7bdd90485275a4100a26e76e714</t>
+  </si>
+  <si>
+    <t>2026-02-02T16:41:27Z</t>
+  </si>
+  <si>
+    <t>2026-02-02T16:47:03Z</t>
+  </si>
+  <si>
+    <t>241d494bb21f946e0e22fbf435aa64f3</t>
+  </si>
+  <si>
+    <t>2026-02-02T16:25:03Z</t>
+  </si>
+  <si>
+    <t>1d91168f682abc755dc34b0b96f27432</t>
+  </si>
+  <si>
+    <t>2026-02-02T16:33:28Z</t>
+  </si>
+  <si>
+    <t>7d76fdbbed91fbda87e5806a6a3bb822</t>
+  </si>
+  <si>
     <t>subject_application_vendor:tarasoft_</t>
-  </si>
-  <si>
-    <t>subject_application_version:2.0</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT24_OK</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT25_OK</t>
-  </si>
-  <si>
-    <t>c6754f133aa8a4965f44a4c104032329</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.f04de7fa7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>9cbc7fc4a304d9ca41bd516b0058d76a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.cbcf1aca31^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ALLINEAMENTO DB CON SISS LOMBARDIA</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT06_KO</t>
-  </si>
-  <si>
-    <t>bf45ac519b7edf50086ba8e235adcbd7</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT08_KO</t>
-  </si>
-  <si>
-    <t>ff5893859fee1ff1d9add993ffd99a08</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT09_KO</t>
-  </si>
-  <si>
-    <t>6b97fb52545271717e74d3fa33dc5b2b</t>
-  </si>
-  <si>
-    <t>1b0dfb9feecd9d1f6d05619780fdebb4</t>
-  </si>
-  <si>
-    <t>238366544401a5af2f68a2924b72abb5</t>
-  </si>
-  <si>
-    <t>2980f228441067222227d755cbf34877</t>
-  </si>
-  <si>
-    <t>847a9f827cba82574887d87fd6ee3181</t>
-  </si>
-  <si>
-    <t>c3a4b129aab8ecb19e18bc91caeb79b1</t>
-  </si>
-  <si>
-    <t>cc08bf4b5b609cd6343ddf1fafdbe584</t>
-  </si>
-  <si>
-    <t>582cfe372aaaba52a1d798a0ac601d2c</t>
-  </si>
-  <si>
-    <t>8fe29cc3ec7e1f9ea69f4f55db36f7ef</t>
-  </si>
-  <si>
-    <t>fed47ddcb943c6c14eba4b5624ce893c</t>
-  </si>
-  <si>
-    <t>9c2c30dfe92ab64b131b003091e243fa</t>
-  </si>
-  <si>
-    <t>4243077c7f2e640a36550f7838b03cd4</t>
-  </si>
-  <si>
-    <t>ad29d3d46849277f7e7bc88816a310a5</t>
-  </si>
-  <si>
-    <t>ddeb775ab5fb0e6ba2265fe5ce7b7021</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT27_KO</t>
-  </si>
-  <si>
-    <t>ec8c474898bf854de2f2b718991fea3f</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT28_KO</t>
-  </si>
-  <si>
-    <t>5ec7a6966eeea9a88d005025a1296617</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT25_OK</t>
-  </si>
-  <si>
-    <t>9a56d9d564da1168781347d26c091dc5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.1c373e6879^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT26_OK</t>
-  </si>
-  <si>
-    <t>3383d2f8fa6a422d67eaad9314253f10</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.c7e3643747^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d5752852c2256166990db7f2300e0802</t>
-  </si>
-  <si>
-    <t>2e5fe0a8a5dd0ccc0cbe676ea46fc6be</t>
-  </si>
-  <si>
-    <t>62e77ae86bb600d57c68b3d0242743c9</t>
-  </si>
-  <si>
-    <t>9e4533243aca85b5c482f8caca650c50</t>
-  </si>
-  <si>
-    <t>575b07491762f0358e061ba738415070</t>
-  </si>
-  <si>
-    <t>044b9ebd672cef670684353a0e58737e</t>
-  </si>
-  <si>
-    <t>ca285b08f2cb0e73a3ed1062db4bcb6b</t>
-  </si>
-  <si>
-    <t>b2f7b90077fdd78b46524e868149f832</t>
-  </si>
-  <si>
-    <t>5541890fc29641380380878a89921dc1</t>
-  </si>
-  <si>
-    <t>fbb71cd12c852d3f596c15bc557051c0</t>
-  </si>
-  <si>
-    <t>4053f3a389432c418b05be2fb5e7e303</t>
-  </si>
-  <si>
-    <t>74bf1964b244be0af2753fc5b4315c2e</t>
-  </si>
-  <si>
-    <t>c1e1143094c73df32a9a336f369b0891</t>
-  </si>
-  <si>
-    <t>4cb3162e4e6c8c8489e72c4b320a403c</t>
-  </si>
-  <si>
-    <t>815620bdbf9e26999ad7e1a461fc5050</t>
-  </si>
-  <si>
-    <t>5b7a5aad9ff65603786a49db2d916851</t>
-  </si>
-  <si>
-    <t>4d09839b11a460642b547bd68e11a9e2</t>
-  </si>
-  <si>
-    <t>90b18d2a0f6ddef1c545137c611cc1f2</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT06_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT08_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT09_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT10_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT11_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT13_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT14_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT15_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT16_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT17_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT18_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT19_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT20_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT21_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT22_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT23_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT24_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT27_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_RAD_TIMEOUT</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_RSA_TIMEOUT</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
-  </si>
-  <si>
-    <t>31,39,47,76,78,79,80,81,83,84,85,86,87,88,89,90,91,92,93,462,474</t>
-  </si>
-  <si>
-    <t>32,40,48,152,154,155,156,159,160,161,162,163,164,165,166,167,168,169,461,468,475</t>
-  </si>
-  <si>
-    <t>b0a671d964e6ce428906b636feb3c55a</t>
-  </si>
-  <si>
-    <t>2fed3da5ebeaba6ab7f63fab35b15109</t>
-  </si>
-  <si>
-    <t>5753e48983833947e7689639090336e0</t>
-  </si>
-  <si>
-    <t>5d0d1e438fd8d44b5252d8bcf01ca926</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.a33008399d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.d56c6c83f9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.6456c4db14^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.1e2051b7af^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.6c607ff68e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.7eda12b8c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.ce6695fc58^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.8d67ef64a1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.6f29b40453^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.6699cec040^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.79db1f9050^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.5ab384edaf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.c0f6aaf398^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.c9c5cc175c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.908715a8ec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.fd1a32a339^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.33a1839d67^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.ff4e7c7ad6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.148a87cdb8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.7d4bc6c110^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.212c50a6d7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.2bba72f1f3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.418cd14293^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.a0fca74644^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.838396e4f8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.6113c6a4f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.acf021b9d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.2b9944c775^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.8549106554^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.9d76cd3aac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.dc1f25d8f1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.ed3f5f078a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.40334c83e5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.b0070ee7e9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.9c65fc9b96^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.89636a2fe9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-01-09T08:18:25Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T15:14:21Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T16:09:06Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T04:56:38Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:02:14Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:07:52Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:12:31Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:21:02Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:29:27Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:35:40Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:40:08Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:46:03Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T05:50:16Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:00:54Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:05:54Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:10:46Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:16:05Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:22:16Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:30:18Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:34:02Z</t>
-  </si>
-  <si>
-    <t>2025-12-28T06:38:57Z</t>
-  </si>
-  <si>
-    <t>2026-01-09T08:51:28Z</t>
-  </si>
-  <si>
-    <t>2026-01-08T10:26:05Z</t>
-  </si>
-  <si>
-    <t>2026-01-08T10:05:31Z</t>
-  </si>
-  <si>
-    <t>2025-12-26T16:01:45Z</t>
-  </si>
-  <si>
-    <t>2025-12-26T17:54:42Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T06:28:33Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T06:54:21Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T07:03:41Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T07:12:04Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T07:25:25Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T07:33:11Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T07:39:30Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T07:55:56Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T08:03:31Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T09:28:40Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T09:34:09Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T09:39:14Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T09:47:28Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T09:54:34Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T09:59:58Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T10:04:35Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T10:09:52Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T10:14:39Z</t>
   </si>
 </sst>
 </file>
@@ -1914,11 +1901,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2033,6 +2027,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF242424"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2377,184 +2378,205 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -2627,9 +2649,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2853,8 +2872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4001,13 +4020,13 @@
   <dimension ref="A1:W731"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.453125" customWidth="1"/>
     <col min="2" max="2" width="27.1796875" customWidth="1"/>
@@ -4026,6 +4045,7 @@
     <col min="21" max="21" width="36.453125" customWidth="1"/>
     <col min="22" max="22" width="39.26953125" customWidth="1"/>
     <col min="23" max="23" width="31.81640625" customWidth="1"/>
+    <col min="24" max="26" width="14.453125"/>
     <col min="27" max="27" width="30.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4051,14 +4071,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="69" t="s">
         <v>346</v>
       </c>
-      <c r="D2" s="61"/>
+      <c r="D2" s="68"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4079,14 +4099,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="69" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="D3" s="61"/>
+      <c r="D3" s="68"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4107,12 +4127,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="69" t="s">
-        <v>348</v>
-      </c>
-      <c r="D4" s="61"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="76" t="s">
+        <v>517</v>
+      </c>
+      <c r="D4" s="68"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4134,12 +4154,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69" t="s">
-        <v>349</v>
-      </c>
-      <c r="D5" s="61"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" s="68"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4160,8 +4180,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9314,27 +9334,27 @@
         <v>38</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E145" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F145" s="35">
-        <v>46031</v>
-      </c>
-      <c r="G145" s="35" t="s">
-        <v>472</v>
-      </c>
-      <c r="H145" s="35" t="s">
-        <v>430</v>
+      <c r="F145" s="59">
+        <v>46055</v>
+      </c>
+      <c r="G145" s="64" t="s">
+        <v>510</v>
+      </c>
+      <c r="H145" s="64" t="s">
+        <v>509</v>
       </c>
       <c r="I145" s="40" t="s">
-        <v>435</v>
+        <v>508</v>
       </c>
       <c r="J145" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="K145" s="36"/>
+      <c r="K145" s="58"/>
       <c r="L145" s="36"/>
       <c r="M145" s="36" t="s">
         <v>60</v>
@@ -9353,7 +9373,7 @@
         <v>191</v>
       </c>
       <c r="S145" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T145" s="36" t="s">
         <v>189</v>
@@ -9375,27 +9395,27 @@
         <v>38</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E146" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F146" s="35">
-        <v>46031</v>
-      </c>
-      <c r="G146" s="35" t="s">
-        <v>472</v>
-      </c>
-      <c r="H146" s="35" t="s">
-        <v>431</v>
-      </c>
-      <c r="I146" s="40" t="s">
-        <v>435</v>
+      <c r="F146" s="60">
+        <v>46055</v>
+      </c>
+      <c r="G146" s="64" t="s">
+        <v>511</v>
+      </c>
+      <c r="H146" s="64" t="s">
+        <v>512</v>
+      </c>
+      <c r="I146" s="61" t="s">
+        <v>508</v>
       </c>
       <c r="J146" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="K146" s="36"/>
+      <c r="K146" s="58"/>
       <c r="L146" s="36"/>
       <c r="M146" s="36" t="s">
         <v>60</v>
@@ -9414,7 +9434,7 @@
         <v>191</v>
       </c>
       <c r="S146" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T146" s="36" t="s">
         <v>189</v>
@@ -9436,7 +9456,7 @@
         <v>38</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E147" s="41" t="s">
         <v>333</v>
@@ -9445,7 +9465,7 @@
         <v>46030</v>
       </c>
       <c r="G147" s="35" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="H147" s="35"/>
       <c r="I147" s="40"/>
@@ -9471,7 +9491,7 @@
         <v>191</v>
       </c>
       <c r="S147" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T147" s="36" t="s">
         <v>189</v>
@@ -9493,7 +9513,7 @@
         <v>38</v>
       </c>
       <c r="D148" s="33" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E148" s="41" t="s">
         <v>332</v>
@@ -9502,13 +9522,13 @@
         <v>46018</v>
       </c>
       <c r="G148" s="35" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="H148" s="35" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I148" s="40" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="J148" s="36" t="s">
         <v>60</v>
@@ -9542,7 +9562,7 @@
         <v>38</v>
       </c>
       <c r="D149" s="33" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E149" s="41" t="s">
         <v>332</v>
@@ -9551,13 +9571,13 @@
         <v>46018</v>
       </c>
       <c r="G149" s="35" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="H149" s="35" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="I149" s="40" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="J149" s="36" t="s">
         <v>60</v>
@@ -9591,7 +9611,7 @@
         <v>38</v>
       </c>
       <c r="D150" s="33" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="E150" s="41" t="s">
         <v>332</v>
@@ -9600,13 +9620,13 @@
         <v>46019</v>
       </c>
       <c r="G150" s="35" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="H150" s="35" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I150" s="40" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="J150" s="36" t="s">
         <v>60</v>
@@ -9630,14 +9650,14 @@
         <v>191</v>
       </c>
       <c r="S150" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T150" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U150" s="37"/>
       <c r="V150" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W150" s="36" t="s">
         <v>44</v>
@@ -9654,22 +9674,22 @@
         <v>38</v>
       </c>
       <c r="D151" s="33" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="E151" s="41" t="s">
         <v>332</v>
       </c>
       <c r="F151" s="35">
-        <v>46019</v>
+        <v>46049</v>
       </c>
       <c r="G151" s="35" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="H151" s="35" t="s">
-        <v>387</v>
+        <v>482</v>
       </c>
       <c r="I151" s="40" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="J151" s="36" t="s">
         <v>60</v>
@@ -9677,7 +9697,7 @@
       <c r="K151" s="36"/>
       <c r="L151" s="36"/>
       <c r="M151" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N151" s="36" t="s">
         <v>191</v>
@@ -9693,14 +9713,14 @@
         <v>191</v>
       </c>
       <c r="S151" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T151" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U151" s="37"/>
       <c r="V151" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W151" s="36" t="s">
         <v>44</v>
@@ -9717,22 +9737,22 @@
         <v>38</v>
       </c>
       <c r="D152" s="33" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="E152" s="41" t="s">
         <v>332</v>
       </c>
       <c r="F152" s="35">
-        <v>46019</v>
+        <v>46049</v>
       </c>
       <c r="G152" s="35" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="H152" s="35" t="s">
-        <v>388</v>
+        <v>485</v>
       </c>
       <c r="I152" s="40" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="J152" s="36" t="s">
         <v>60</v>
@@ -9740,7 +9760,7 @@
       <c r="K152" s="36"/>
       <c r="L152" s="36"/>
       <c r="M152" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N152" s="36" t="s">
         <v>191</v>
@@ -9756,14 +9776,14 @@
         <v>191</v>
       </c>
       <c r="S152" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T152" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U152" s="37"/>
       <c r="V152" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W152" s="36" t="s">
         <v>44</v>
@@ -9780,22 +9800,22 @@
         <v>38</v>
       </c>
       <c r="D153" s="33" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="E153" s="41" t="s">
         <v>332</v>
       </c>
       <c r="F153" s="35">
-        <v>46019</v>
+        <v>46049</v>
       </c>
       <c r="G153" s="35" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="H153" s="35" t="s">
-        <v>389</v>
+        <v>488</v>
       </c>
       <c r="I153" s="40" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
       <c r="J153" s="36" t="s">
         <v>60</v>
@@ -9803,7 +9823,7 @@
       <c r="K153" s="36"/>
       <c r="L153" s="36"/>
       <c r="M153" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N153" s="36" t="s">
         <v>191</v>
@@ -9819,14 +9839,14 @@
         <v>191</v>
       </c>
       <c r="S153" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T153" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U153" s="37"/>
       <c r="V153" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W153" s="36" t="s">
         <v>44</v>
@@ -9843,22 +9863,22 @@
         <v>38</v>
       </c>
       <c r="D154" s="33" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="E154" s="41" t="s">
         <v>332</v>
       </c>
       <c r="F154" s="35">
-        <v>46019</v>
+        <v>46049</v>
       </c>
       <c r="G154" s="35" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="H154" s="35" t="s">
-        <v>390</v>
+        <v>491</v>
       </c>
       <c r="I154" s="40" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="J154" s="36" t="s">
         <v>60</v>
@@ -9866,7 +9886,7 @@
       <c r="K154" s="36"/>
       <c r="L154" s="36"/>
       <c r="M154" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N154" s="36" t="s">
         <v>191</v>
@@ -9882,14 +9902,14 @@
         <v>191</v>
       </c>
       <c r="S154" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T154" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U154" s="37"/>
       <c r="V154" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W154" s="36" t="s">
         <v>44</v>
@@ -9906,7 +9926,7 @@
         <v>38</v>
       </c>
       <c r="D155" s="33" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="E155" s="41" t="s">
         <v>332</v>
@@ -9915,13 +9935,13 @@
         <v>46019</v>
       </c>
       <c r="G155" s="35" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="H155" s="35" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="I155" s="40" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="J155" s="36" t="s">
         <v>60</v>
@@ -9945,14 +9965,14 @@
         <v>191</v>
       </c>
       <c r="S155" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T155" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U155" s="37"/>
       <c r="V155" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W155" s="36" t="s">
         <v>44</v>
@@ -9969,7 +9989,7 @@
         <v>38</v>
       </c>
       <c r="D156" s="33" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E156" s="41" t="s">
         <v>332</v>
@@ -9978,13 +9998,13 @@
         <v>46019</v>
       </c>
       <c r="G156" s="35" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="H156" s="35" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="I156" s="40" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="J156" s="36" t="s">
         <v>60</v>
@@ -10008,14 +10028,14 @@
         <v>191</v>
       </c>
       <c r="S156" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T156" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U156" s="37"/>
       <c r="V156" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W156" s="36" t="s">
         <v>44</v>
@@ -10032,7 +10052,7 @@
         <v>38</v>
       </c>
       <c r="D157" s="33" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="E157" s="41" t="s">
         <v>332</v>
@@ -10041,13 +10061,13 @@
         <v>46019</v>
       </c>
       <c r="G157" s="35" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="H157" s="35" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="I157" s="40" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="J157" s="36" t="s">
         <v>60</v>
@@ -10071,14 +10091,14 @@
         <v>191</v>
       </c>
       <c r="S157" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T157" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U157" s="37"/>
       <c r="V157" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W157" s="36" t="s">
         <v>44</v>
@@ -10095,7 +10115,7 @@
         <v>38</v>
       </c>
       <c r="D158" s="33" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="E158" s="41" t="s">
         <v>332</v>
@@ -10104,13 +10124,13 @@
         <v>46019</v>
       </c>
       <c r="G158" s="35" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="H158" s="35" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="I158" s="40" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="J158" s="36" t="s">
         <v>60</v>
@@ -10134,14 +10154,14 @@
         <v>191</v>
       </c>
       <c r="S158" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T158" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U158" s="37"/>
       <c r="V158" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W158" s="36" t="s">
         <v>44</v>
@@ -10158,7 +10178,7 @@
         <v>38</v>
       </c>
       <c r="D159" s="33" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E159" s="41" t="s">
         <v>332</v>
@@ -10167,13 +10187,13 @@
         <v>46019</v>
       </c>
       <c r="G159" s="35" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="H159" s="35" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="I159" s="40" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="J159" s="36" t="s">
         <v>60</v>
@@ -10197,14 +10217,14 @@
         <v>191</v>
       </c>
       <c r="S159" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T159" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U159" s="37"/>
       <c r="V159" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W159" s="36" t="s">
         <v>44</v>
@@ -10221,7 +10241,7 @@
         <v>38</v>
       </c>
       <c r="D160" s="33" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E160" s="41" t="s">
         <v>332</v>
@@ -10230,13 +10250,13 @@
         <v>46019</v>
       </c>
       <c r="G160" s="35" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="H160" s="35" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="I160" s="40" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="J160" s="36" t="s">
         <v>60</v>
@@ -10260,14 +10280,14 @@
         <v>191</v>
       </c>
       <c r="S160" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T160" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U160" s="37"/>
       <c r="V160" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W160" s="36" t="s">
         <v>44</v>
@@ -10284,7 +10304,7 @@
         <v>38</v>
       </c>
       <c r="D161" s="33" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="E161" s="41" t="s">
         <v>332</v>
@@ -10293,13 +10313,13 @@
         <v>46019</v>
       </c>
       <c r="G161" s="35" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="H161" s="35" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="I161" s="40" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="J161" s="36" t="s">
         <v>60</v>
@@ -10323,14 +10343,14 @@
         <v>191</v>
       </c>
       <c r="S161" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T161" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U161" s="37"/>
       <c r="V161" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W161" s="36" t="s">
         <v>44</v>
@@ -10347,7 +10367,7 @@
         <v>38</v>
       </c>
       <c r="D162" s="33" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="E162" s="41" t="s">
         <v>332</v>
@@ -10356,13 +10376,13 @@
         <v>46019</v>
       </c>
       <c r="G162" s="35" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="H162" s="35" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="I162" s="40" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="J162" s="36" t="s">
         <v>60</v>
@@ -10386,14 +10406,14 @@
         <v>191</v>
       </c>
       <c r="S162" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T162" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U162" s="37"/>
       <c r="V162" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W162" s="36" t="s">
         <v>44</v>
@@ -10410,7 +10430,7 @@
         <v>38</v>
       </c>
       <c r="D163" s="33" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="E163" s="41" t="s">
         <v>332</v>
@@ -10419,13 +10439,13 @@
         <v>46019</v>
       </c>
       <c r="G163" s="35" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="H163" s="35" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="I163" s="40" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="J163" s="36" t="s">
         <v>60</v>
@@ -10449,14 +10469,14 @@
         <v>191</v>
       </c>
       <c r="S163" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T163" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U163" s="37"/>
       <c r="V163" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W163" s="36" t="s">
         <v>44</v>
@@ -10473,7 +10493,7 @@
         <v>38</v>
       </c>
       <c r="D164" s="33" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E164" s="41" t="s">
         <v>332</v>
@@ -10482,13 +10502,13 @@
         <v>46019</v>
       </c>
       <c r="G164" s="35" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="H164" s="35" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="I164" s="40" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="J164" s="36" t="s">
         <v>60</v>
@@ -10512,14 +10532,14 @@
         <v>191</v>
       </c>
       <c r="S164" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T164" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U164" s="37"/>
       <c r="V164" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W164" s="36" t="s">
         <v>44</v>
@@ -10536,22 +10556,22 @@
         <v>38</v>
       </c>
       <c r="D165" s="33" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E165" s="41" t="s">
         <v>332</v>
       </c>
       <c r="F165" s="35">
-        <v>46019</v>
+        <v>46049</v>
       </c>
       <c r="G165" s="35" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="H165" s="35" t="s">
-        <v>401</v>
+        <v>494</v>
       </c>
       <c r="I165" s="40" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="J165" s="36" t="s">
         <v>60</v>
@@ -10559,7 +10579,7 @@
       <c r="K165" s="36"/>
       <c r="L165" s="36"/>
       <c r="M165" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N165" s="36" t="s">
         <v>191</v>
@@ -10575,14 +10595,14 @@
         <v>191</v>
       </c>
       <c r="S165" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T165" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U165" s="37"/>
       <c r="V165" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W165" s="36" t="s">
         <v>44</v>
@@ -10599,7 +10619,7 @@
         <v>38</v>
       </c>
       <c r="D166" s="33" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E166" s="41" t="s">
         <v>332</v>
@@ -10608,13 +10628,13 @@
         <v>46019</v>
       </c>
       <c r="G166" s="35" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="H166" s="35" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="I166" s="40" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="J166" s="36" t="s">
         <v>60</v>
@@ -10638,14 +10658,14 @@
         <v>191</v>
       </c>
       <c r="S166" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T166" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U166" s="37"/>
       <c r="V166" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W166" s="36" t="s">
         <v>44</v>
@@ -10662,7 +10682,7 @@
         <v>38</v>
       </c>
       <c r="D167" s="33" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="E167" s="41" t="s">
         <v>332</v>
@@ -10671,13 +10691,13 @@
         <v>46019</v>
       </c>
       <c r="G167" s="35" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="H167" s="35" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="I167" s="40" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="J167" s="36" t="s">
         <v>60</v>
@@ -10701,14 +10721,14 @@
         <v>191</v>
       </c>
       <c r="S167" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T167" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U167" s="37"/>
       <c r="V167" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W167" s="36" t="s">
         <v>44</v>
@@ -10725,22 +10745,22 @@
         <v>48</v>
       </c>
       <c r="D168" s="33" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="E168" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F168" s="35">
-        <v>46031</v>
-      </c>
-      <c r="G168" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="H168" s="35" t="s">
-        <v>432</v>
-      </c>
-      <c r="I168" s="40" t="s">
-        <v>435</v>
+      <c r="F168" s="62">
+        <v>46055</v>
+      </c>
+      <c r="G168" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="H168" s="64" t="s">
+        <v>514</v>
+      </c>
+      <c r="I168" s="61" t="s">
+        <v>508</v>
       </c>
       <c r="J168" s="36" t="s">
         <v>60</v>
@@ -10764,7 +10784,7 @@
         <v>191</v>
       </c>
       <c r="S168" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T168" s="36" t="s">
         <v>189</v>
@@ -10786,22 +10806,22 @@
         <v>48</v>
       </c>
       <c r="D169" s="33" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="E169" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F169" s="35">
-        <v>46031</v>
-      </c>
-      <c r="G169" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="H169" s="35" t="s">
-        <v>433</v>
-      </c>
-      <c r="I169" s="40" t="s">
-        <v>435</v>
+      <c r="F169" s="63">
+        <v>46055</v>
+      </c>
+      <c r="G169" s="64" t="s">
+        <v>515</v>
+      </c>
+      <c r="H169" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="I169" s="61" t="s">
+        <v>508</v>
       </c>
       <c r="J169" s="36" t="s">
         <v>60</v>
@@ -10825,7 +10845,7 @@
         <v>191</v>
       </c>
       <c r="S169" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T169" s="36" t="s">
         <v>189</v>
@@ -10847,7 +10867,7 @@
         <v>48</v>
       </c>
       <c r="D170" s="33" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="E170" s="41" t="s">
         <v>333</v>
@@ -10856,7 +10876,7 @@
         <v>46030</v>
       </c>
       <c r="G170" s="35" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="H170" s="35"/>
       <c r="I170" s="40"/>
@@ -10882,7 +10902,7 @@
         <v>191</v>
       </c>
       <c r="S170" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T170" s="36" t="s">
         <v>189</v>
@@ -10904,7 +10924,7 @@
         <v>48</v>
       </c>
       <c r="D171" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E171" s="41" t="s">
         <v>332</v>
@@ -10913,13 +10933,13 @@
         <v>46017</v>
       </c>
       <c r="G171" s="35" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="H171" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="I171" s="40" t="s">
         <v>352</v>
-      </c>
-      <c r="I171" s="40" t="s">
-        <v>353</v>
       </c>
       <c r="J171" s="36" t="s">
         <v>60</v>
@@ -11064,7 +11084,7 @@
         <v>48</v>
       </c>
       <c r="D175" s="33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E175" s="41" t="s">
         <v>332</v>
@@ -11073,13 +11093,13 @@
         <v>46017</v>
       </c>
       <c r="G175" s="35" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="H175" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="I175" s="40" t="s">
         <v>354</v>
-      </c>
-      <c r="I175" s="40" t="s">
-        <v>355</v>
       </c>
       <c r="J175" s="36" t="s">
         <v>60</v>
@@ -11113,7 +11133,7 @@
         <v>48</v>
       </c>
       <c r="D176" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E176" s="41" t="s">
         <v>332</v>
@@ -11122,13 +11142,13 @@
         <v>46018</v>
       </c>
       <c r="G176" s="35" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="H176" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I176" s="40" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="J176" s="36" t="s">
         <v>60</v>
@@ -11152,14 +11172,14 @@
         <v>191</v>
       </c>
       <c r="S176" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T176" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U176" s="37"/>
       <c r="V176" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W176" s="36" t="s">
         <v>44</v>
@@ -11176,22 +11196,22 @@
         <v>48</v>
       </c>
       <c r="D177" s="33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E177" s="41" t="s">
         <v>332</v>
       </c>
       <c r="F177" s="35">
-        <v>46018</v>
+        <v>46049</v>
       </c>
       <c r="G177" s="35" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H177" s="35" t="s">
-        <v>360</v>
+        <v>497</v>
       </c>
       <c r="I177" s="40" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="J177" s="36" t="s">
         <v>60</v>
@@ -11199,7 +11219,7 @@
       <c r="K177" s="36"/>
       <c r="L177" s="36"/>
       <c r="M177" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N177" s="36" t="s">
         <v>191</v>
@@ -11215,14 +11235,14 @@
         <v>191</v>
       </c>
       <c r="S177" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T177" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U177" s="37"/>
       <c r="V177" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W177" s="36" t="s">
         <v>44</v>
@@ -11239,22 +11259,22 @@
         <v>48</v>
       </c>
       <c r="D178" s="33" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E178" s="41" t="s">
         <v>332</v>
       </c>
       <c r="F178" s="35">
-        <v>46018</v>
+        <v>46049</v>
       </c>
       <c r="G178" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="H178" s="35" t="s">
         <v>500</v>
       </c>
-      <c r="H178" s="35" t="s">
-        <v>362</v>
-      </c>
       <c r="I178" s="40" t="s">
-        <v>456</v>
+        <v>501</v>
       </c>
       <c r="J178" s="36" t="s">
         <v>60</v>
@@ -11262,7 +11282,7 @@
       <c r="K178" s="36"/>
       <c r="L178" s="36"/>
       <c r="M178" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N178" s="36" t="s">
         <v>191</v>
@@ -11278,14 +11298,14 @@
         <v>191</v>
       </c>
       <c r="S178" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T178" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U178" s="37"/>
       <c r="V178" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W178" s="36" t="s">
         <v>44</v>
@@ -11308,16 +11328,16 @@
         <v>332</v>
       </c>
       <c r="F179" s="35">
-        <v>46018</v>
+        <v>46049</v>
       </c>
       <c r="G179" s="35" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H179" s="35" t="s">
-        <v>363</v>
+        <v>503</v>
       </c>
       <c r="I179" s="40" t="s">
-        <v>457</v>
+        <v>504</v>
       </c>
       <c r="J179" s="36" t="s">
         <v>60</v>
@@ -11325,7 +11345,7 @@
       <c r="K179" s="36"/>
       <c r="L179" s="36"/>
       <c r="M179" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N179" s="36" t="s">
         <v>191</v>
@@ -11341,14 +11361,14 @@
         <v>191</v>
       </c>
       <c r="S179" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T179" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U179" s="37"/>
       <c r="V179" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W179" s="36" t="s">
         <v>44</v>
@@ -11374,13 +11394,13 @@
         <v>46018</v>
       </c>
       <c r="G180" s="35" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="H180" s="35" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I180" s="40" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="J180" s="36" t="s">
         <v>60</v>
@@ -11404,14 +11424,14 @@
         <v>191</v>
       </c>
       <c r="S180" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T180" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U180" s="37"/>
       <c r="V180" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W180" s="36" t="s">
         <v>44</v>
@@ -11437,13 +11457,13 @@
         <v>46018</v>
       </c>
       <c r="G181" s="35" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
       <c r="H181" s="35" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I181" s="40" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="J181" s="36" t="s">
         <v>60</v>
@@ -11467,14 +11487,14 @@
         <v>191</v>
       </c>
       <c r="S181" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T181" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U181" s="37"/>
       <c r="V181" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W181" s="36" t="s">
         <v>44</v>
@@ -11500,13 +11520,13 @@
         <v>46018</v>
       </c>
       <c r="G182" s="35" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="H182" s="35" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I182" s="40" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="J182" s="36" t="s">
         <v>60</v>
@@ -11530,14 +11550,14 @@
         <v>191</v>
       </c>
       <c r="S182" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T182" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U182" s="37"/>
       <c r="V182" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W182" s="36" t="s">
         <v>44</v>
@@ -11560,16 +11580,16 @@
         <v>332</v>
       </c>
       <c r="F183" s="35">
-        <v>46018</v>
+        <v>46049</v>
       </c>
       <c r="G183" s="35" t="s">
         <v>505</v>
       </c>
       <c r="H183" s="35" t="s">
-        <v>367</v>
+        <v>506</v>
       </c>
       <c r="I183" s="40" t="s">
-        <v>461</v>
+        <v>507</v>
       </c>
       <c r="J183" s="36" t="s">
         <v>60</v>
@@ -11577,7 +11597,7 @@
       <c r="K183" s="36"/>
       <c r="L183" s="36"/>
       <c r="M183" s="36" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="N183" s="36" t="s">
         <v>191</v>
@@ -11593,14 +11613,14 @@
         <v>191</v>
       </c>
       <c r="S183" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T183" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U183" s="37"/>
       <c r="V183" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W183" s="36" t="s">
         <v>44</v>
@@ -11626,13 +11646,13 @@
         <v>46018</v>
       </c>
       <c r="G184" s="35" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="H184" s="35" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="I184" s="40" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="J184" s="36" t="s">
         <v>60</v>
@@ -11656,14 +11676,14 @@
         <v>191</v>
       </c>
       <c r="S184" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T184" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U184" s="37"/>
       <c r="V184" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W184" s="36" t="s">
         <v>44</v>
@@ -11689,13 +11709,13 @@
         <v>46018</v>
       </c>
       <c r="G185" s="35" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="H185" s="35" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="I185" s="40" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="J185" s="36" t="s">
         <v>60</v>
@@ -11719,14 +11739,14 @@
         <v>191</v>
       </c>
       <c r="S185" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T185" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U185" s="37"/>
       <c r="V185" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W185" s="36" t="s">
         <v>44</v>
@@ -11752,13 +11772,13 @@
         <v>46018</v>
       </c>
       <c r="G186" s="35" t="s">
-        <v>508</v>
+        <v>473</v>
       </c>
       <c r="H186" s="35" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="I186" s="40" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="J186" s="36" t="s">
         <v>60</v>
@@ -11782,14 +11802,14 @@
         <v>191</v>
       </c>
       <c r="S186" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T186" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U186" s="37"/>
       <c r="V186" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W186" s="36" t="s">
         <v>44</v>
@@ -11815,13 +11835,13 @@
         <v>46018</v>
       </c>
       <c r="G187" s="35" t="s">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="H187" s="35" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="I187" s="40" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="J187" s="36" t="s">
         <v>60</v>
@@ -11845,14 +11865,14 @@
         <v>191</v>
       </c>
       <c r="S187" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T187" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U187" s="37"/>
       <c r="V187" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W187" s="36" t="s">
         <v>44</v>
@@ -11878,13 +11898,13 @@
         <v>46018</v>
       </c>
       <c r="G188" s="35" t="s">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="H188" s="35" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="I188" s="40" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="J188" s="36" t="s">
         <v>60</v>
@@ -11908,14 +11928,14 @@
         <v>191</v>
       </c>
       <c r="S188" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T188" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U188" s="37"/>
       <c r="V188" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W188" s="36" t="s">
         <v>44</v>
@@ -11941,13 +11961,13 @@
         <v>46018</v>
       </c>
       <c r="G189" s="35" t="s">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="H189" s="35" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="I189" s="40" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="J189" s="36" t="s">
         <v>60</v>
@@ -11971,14 +11991,14 @@
         <v>191</v>
       </c>
       <c r="S189" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T189" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U189" s="37"/>
       <c r="V189" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W189" s="36" t="s">
         <v>44</v>
@@ -12004,13 +12024,13 @@
         <v>46018</v>
       </c>
       <c r="G190" s="35" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="H190" s="35" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="I190" s="40" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="J190" s="36" t="s">
         <v>60</v>
@@ -12034,14 +12054,14 @@
         <v>191</v>
       </c>
       <c r="S190" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T190" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U190" s="37"/>
       <c r="V190" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W190" s="36" t="s">
         <v>44</v>
@@ -12067,13 +12087,13 @@
         <v>46018</v>
       </c>
       <c r="G191" s="35" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="H191" s="35" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="I191" s="40" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="J191" s="36" t="s">
         <v>60</v>
@@ -12097,14 +12117,14 @@
         <v>191</v>
       </c>
       <c r="S191" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T191" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U191" s="37"/>
       <c r="V191" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W191" s="36" t="s">
         <v>44</v>
@@ -12121,7 +12141,7 @@
         <v>48</v>
       </c>
       <c r="D192" s="33" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E192" s="41" t="s">
         <v>332</v>
@@ -12130,13 +12150,13 @@
         <v>46018</v>
       </c>
       <c r="G192" s="35" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="H192" s="35" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="I192" s="40" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="J192" s="36" t="s">
         <v>60</v>
@@ -12160,14 +12180,14 @@
         <v>191</v>
       </c>
       <c r="S192" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T192" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U192" s="37"/>
       <c r="V192" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W192" s="36" t="s">
         <v>44</v>
@@ -12184,7 +12204,7 @@
         <v>48</v>
       </c>
       <c r="D193" s="33" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E193" s="41" t="s">
         <v>332</v>
@@ -12193,13 +12213,13 @@
         <v>46018</v>
       </c>
       <c r="G193" s="35" t="s">
-        <v>515</v>
+        <v>480</v>
       </c>
       <c r="H193" s="35" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="I193" s="40" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="J193" s="36" t="s">
         <v>60</v>
@@ -12223,14 +12243,14 @@
         <v>191</v>
       </c>
       <c r="S193" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="T193" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U193" s="37"/>
       <c r="V193" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W193" s="36" t="s">
         <v>44</v>
@@ -15830,10 +15850,10 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -15853,7 +15873,7 @@
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K193</xm:sqref>
+          <xm:sqref>K10:K144 K147:K193</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15967,7 +15987,7 @@
         <v>471.47199999999998</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -15981,7 +16001,7 @@
         <v>448.44900000000001</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">

--- a/GATEWAY/tarasoft/tarasoft_/45801/2.0/report-checklist.xlsx
+++ b/GATEWAY/tarasoft/tarasoft_/45801/2.0/report-checklist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="980" windowWidth="19420" windowHeight="11020" tabRatio="490" activeTab="2"/>
@@ -1393,18 +1393,6 @@
     <t>VALIDAZIONE_CDA2_RSA_CT25_OK</t>
   </si>
   <si>
-    <t>c6754f133aa8a4965f44a4c104032329</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.f04de7fa7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>9cbc7fc4a304d9ca41bd516b0058d76a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.cbcf1aca31^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>ALLINEAMENTO DB CON SISS LOMBARDIA</t>
   </si>
   <si>
@@ -1468,21 +1456,9 @@
     <t>VALIDAZIONE_CDA2_RAD_CT25_OK</t>
   </si>
   <si>
-    <t>9a56d9d564da1168781347d26c091dc5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.1c373e6879^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT26_OK</t>
   </si>
   <si>
-    <t>3383d2f8fa6a422d67eaad9314253f10</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.c7e3643747^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>d5752852c2256166990db7f2300e0802</t>
   </si>
   <si>
@@ -1684,12 +1660,6 @@
     <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.89636a2fe9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2025-12-27T15:14:21Z</t>
-  </si>
-  <si>
-    <t>2025-12-27T16:09:06Z</t>
-  </si>
-  <si>
     <t>2025-12-28T04:56:38Z</t>
   </si>
   <si>
@@ -1735,12 +1705,6 @@
     <t>2026-01-08T10:05:31Z</t>
   </si>
   <si>
-    <t>2025-12-26T16:01:45Z</t>
-  </si>
-  <si>
-    <t>2025-12-26T17:54:42Z</t>
-  </si>
-  <si>
     <t>2025-12-27T06:28:33Z</t>
   </si>
   <si>
@@ -1892,6 +1856,42 @@
   </si>
   <si>
     <t>subject_application_vendor:tarasoft_</t>
+  </si>
+  <si>
+    <t>2026-02-12T16:08:50Z</t>
+  </si>
+  <si>
+    <t>3164163aa44a694114387fac3c06e26e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.a0d69ef0dc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-12T16:16:31Z</t>
+  </si>
+  <si>
+    <t>8468b76c0edae9eec42e20729922ba57</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.b833fa52a5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-12T18:49:06Z</t>
+  </si>
+  <si>
+    <t>06a055ae46f66b7eb3d9808cc7a9486f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.12173fbf30^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-12T18:52:20Z</t>
+  </si>
+  <si>
+    <t>4ceb4e8753c849869086958006b0f6be</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.e788d7a794^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4130,7 +4130,7 @@
       <c r="A4" s="72"/>
       <c r="B4" s="73"/>
       <c r="C4" s="76" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="D4" s="68"/>
       <c r="E4" s="4"/>
@@ -9334,7 +9334,7 @@
         <v>38</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E145" s="41" t="s">
         <v>43</v>
@@ -9343,13 +9343,13 @@
         <v>46055</v>
       </c>
       <c r="G145" s="64" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="H145" s="64" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="I145" s="40" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="J145" s="36" t="s">
         <v>60</v>
@@ -9373,7 +9373,7 @@
         <v>191</v>
       </c>
       <c r="S145" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T145" s="36" t="s">
         <v>189</v>
@@ -9395,7 +9395,7 @@
         <v>38</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E146" s="41" t="s">
         <v>53</v>
@@ -9404,13 +9404,13 @@
         <v>46055</v>
       </c>
       <c r="G146" s="64" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="H146" s="64" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="I146" s="61" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="J146" s="36" t="s">
         <v>60</v>
@@ -9434,7 +9434,7 @@
         <v>191</v>
       </c>
       <c r="S146" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T146" s="36" t="s">
         <v>189</v>
@@ -9456,7 +9456,7 @@
         <v>38</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="E147" s="41" t="s">
         <v>333</v>
@@ -9465,7 +9465,7 @@
         <v>46030</v>
       </c>
       <c r="G147" s="35" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="H147" s="35"/>
       <c r="I147" s="40"/>
@@ -9491,7 +9491,7 @@
         <v>191</v>
       </c>
       <c r="S147" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T147" s="36" t="s">
         <v>189</v>
@@ -9513,22 +9513,22 @@
         <v>38</v>
       </c>
       <c r="D148" s="33" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E148" s="41" t="s">
         <v>332</v>
       </c>
       <c r="F148" s="35">
-        <v>46018</v>
-      </c>
-      <c r="G148" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="H148" s="35" t="s">
-        <v>376</v>
-      </c>
-      <c r="I148" s="40" t="s">
-        <v>377</v>
+        <v>46065</v>
+      </c>
+      <c r="G148" s="64" t="s">
+        <v>506</v>
+      </c>
+      <c r="H148" s="64" t="s">
+        <v>507</v>
+      </c>
+      <c r="I148" s="61" t="s">
+        <v>508</v>
       </c>
       <c r="J148" s="36" t="s">
         <v>60</v>
@@ -9562,22 +9562,22 @@
         <v>38</v>
       </c>
       <c r="D149" s="33" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E149" s="41" t="s">
         <v>332</v>
       </c>
       <c r="F149" s="35">
-        <v>46018</v>
-      </c>
-      <c r="G149" s="35" t="s">
-        <v>449</v>
-      </c>
-      <c r="H149" s="35" t="s">
-        <v>379</v>
-      </c>
-      <c r="I149" s="40" t="s">
-        <v>380</v>
+        <v>46065</v>
+      </c>
+      <c r="G149" s="64" t="s">
+        <v>509</v>
+      </c>
+      <c r="H149" s="64" t="s">
+        <v>510</v>
+      </c>
+      <c r="I149" s="61" t="s">
+        <v>511</v>
       </c>
       <c r="J149" s="36" t="s">
         <v>60</v>
@@ -9611,7 +9611,7 @@
         <v>38</v>
       </c>
       <c r="D150" s="33" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E150" s="41" t="s">
         <v>332</v>
@@ -9620,13 +9620,13 @@
         <v>46019</v>
       </c>
       <c r="G150" s="35" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="H150" s="35" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="I150" s="40" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="J150" s="36" t="s">
         <v>60</v>
@@ -9650,14 +9650,14 @@
         <v>191</v>
       </c>
       <c r="S150" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T150" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U150" s="37"/>
       <c r="V150" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W150" s="36" t="s">
         <v>44</v>
@@ -9674,7 +9674,7 @@
         <v>38</v>
       </c>
       <c r="D151" s="33" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E151" s="41" t="s">
         <v>332</v>
@@ -9683,13 +9683,13 @@
         <v>46049</v>
       </c>
       <c r="G151" s="35" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="H151" s="35" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="I151" s="40" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="J151" s="36" t="s">
         <v>60</v>
@@ -9713,14 +9713,14 @@
         <v>191</v>
       </c>
       <c r="S151" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T151" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U151" s="37"/>
       <c r="V151" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W151" s="36" t="s">
         <v>44</v>
@@ -9737,7 +9737,7 @@
         <v>38</v>
       </c>
       <c r="D152" s="33" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E152" s="41" t="s">
         <v>332</v>
@@ -9746,13 +9746,13 @@
         <v>46049</v>
       </c>
       <c r="G152" s="35" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="H152" s="35" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="I152" s="40" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="J152" s="36" t="s">
         <v>60</v>
@@ -9776,14 +9776,14 @@
         <v>191</v>
       </c>
       <c r="S152" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T152" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U152" s="37"/>
       <c r="V152" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W152" s="36" t="s">
         <v>44</v>
@@ -9800,7 +9800,7 @@
         <v>38</v>
       </c>
       <c r="D153" s="33" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E153" s="41" t="s">
         <v>332</v>
@@ -9809,13 +9809,13 @@
         <v>46049</v>
       </c>
       <c r="G153" s="35" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="H153" s="35" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="I153" s="40" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="J153" s="36" t="s">
         <v>60</v>
@@ -9839,14 +9839,14 @@
         <v>191</v>
       </c>
       <c r="S153" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T153" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U153" s="37"/>
       <c r="V153" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W153" s="36" t="s">
         <v>44</v>
@@ -9863,7 +9863,7 @@
         <v>38</v>
       </c>
       <c r="D154" s="33" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E154" s="41" t="s">
         <v>332</v>
@@ -9872,13 +9872,13 @@
         <v>46049</v>
       </c>
       <c r="G154" s="35" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="H154" s="35" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="I154" s="40" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="J154" s="36" t="s">
         <v>60</v>
@@ -9902,14 +9902,14 @@
         <v>191</v>
       </c>
       <c r="S154" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T154" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U154" s="37"/>
       <c r="V154" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W154" s="36" t="s">
         <v>44</v>
@@ -9926,7 +9926,7 @@
         <v>38</v>
       </c>
       <c r="D155" s="33" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E155" s="41" t="s">
         <v>332</v>
@@ -9935,13 +9935,13 @@
         <v>46019</v>
       </c>
       <c r="G155" s="35" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="H155" s="35" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="I155" s="40" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="J155" s="36" t="s">
         <v>60</v>
@@ -9965,14 +9965,14 @@
         <v>191</v>
       </c>
       <c r="S155" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T155" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U155" s="37"/>
       <c r="V155" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W155" s="36" t="s">
         <v>44</v>
@@ -9989,7 +9989,7 @@
         <v>38</v>
       </c>
       <c r="D156" s="33" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E156" s="41" t="s">
         <v>332</v>
@@ -9998,13 +9998,13 @@
         <v>46019</v>
       </c>
       <c r="G156" s="35" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="H156" s="35" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="I156" s="40" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="J156" s="36" t="s">
         <v>60</v>
@@ -10028,14 +10028,14 @@
         <v>191</v>
       </c>
       <c r="S156" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T156" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U156" s="37"/>
       <c r="V156" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W156" s="36" t="s">
         <v>44</v>
@@ -10052,7 +10052,7 @@
         <v>38</v>
       </c>
       <c r="D157" s="33" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E157" s="41" t="s">
         <v>332</v>
@@ -10061,13 +10061,13 @@
         <v>46019</v>
       </c>
       <c r="G157" s="35" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="H157" s="35" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="I157" s="40" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="J157" s="36" t="s">
         <v>60</v>
@@ -10091,14 +10091,14 @@
         <v>191</v>
       </c>
       <c r="S157" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T157" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U157" s="37"/>
       <c r="V157" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W157" s="36" t="s">
         <v>44</v>
@@ -10115,7 +10115,7 @@
         <v>38</v>
       </c>
       <c r="D158" s="33" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="E158" s="41" t="s">
         <v>332</v>
@@ -10124,13 +10124,13 @@
         <v>46019</v>
       </c>
       <c r="G158" s="35" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="H158" s="35" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="I158" s="40" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="J158" s="36" t="s">
         <v>60</v>
@@ -10154,14 +10154,14 @@
         <v>191</v>
       </c>
       <c r="S158" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T158" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U158" s="37"/>
       <c r="V158" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W158" s="36" t="s">
         <v>44</v>
@@ -10178,7 +10178,7 @@
         <v>38</v>
       </c>
       <c r="D159" s="33" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E159" s="41" t="s">
         <v>332</v>
@@ -10187,13 +10187,13 @@
         <v>46019</v>
       </c>
       <c r="G159" s="35" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="H159" s="35" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="I159" s="40" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="J159" s="36" t="s">
         <v>60</v>
@@ -10217,14 +10217,14 @@
         <v>191</v>
       </c>
       <c r="S159" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T159" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U159" s="37"/>
       <c r="V159" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W159" s="36" t="s">
         <v>44</v>
@@ -10241,7 +10241,7 @@
         <v>38</v>
       </c>
       <c r="D160" s="33" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E160" s="41" t="s">
         <v>332</v>
@@ -10250,13 +10250,13 @@
         <v>46019</v>
       </c>
       <c r="G160" s="35" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="H160" s="35" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I160" s="40" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="J160" s="36" t="s">
         <v>60</v>
@@ -10280,14 +10280,14 @@
         <v>191</v>
       </c>
       <c r="S160" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T160" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U160" s="37"/>
       <c r="V160" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W160" s="36" t="s">
         <v>44</v>
@@ -10304,7 +10304,7 @@
         <v>38</v>
       </c>
       <c r="D161" s="33" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E161" s="41" t="s">
         <v>332</v>
@@ -10313,13 +10313,13 @@
         <v>46019</v>
       </c>
       <c r="G161" s="35" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="H161" s="35" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="I161" s="40" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="J161" s="36" t="s">
         <v>60</v>
@@ -10343,14 +10343,14 @@
         <v>191</v>
       </c>
       <c r="S161" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T161" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U161" s="37"/>
       <c r="V161" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W161" s="36" t="s">
         <v>44</v>
@@ -10367,7 +10367,7 @@
         <v>38</v>
       </c>
       <c r="D162" s="33" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="E162" s="41" t="s">
         <v>332</v>
@@ -10376,13 +10376,13 @@
         <v>46019</v>
       </c>
       <c r="G162" s="35" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="H162" s="35" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="I162" s="40" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="J162" s="36" t="s">
         <v>60</v>
@@ -10406,14 +10406,14 @@
         <v>191</v>
       </c>
       <c r="S162" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T162" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U162" s="37"/>
       <c r="V162" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W162" s="36" t="s">
         <v>44</v>
@@ -10430,7 +10430,7 @@
         <v>38</v>
       </c>
       <c r="D163" s="33" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E163" s="41" t="s">
         <v>332</v>
@@ -10439,13 +10439,13 @@
         <v>46019</v>
       </c>
       <c r="G163" s="35" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="H163" s="35" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="I163" s="40" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="J163" s="36" t="s">
         <v>60</v>
@@ -10469,14 +10469,14 @@
         <v>191</v>
       </c>
       <c r="S163" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T163" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U163" s="37"/>
       <c r="V163" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W163" s="36" t="s">
         <v>44</v>
@@ -10493,7 +10493,7 @@
         <v>38</v>
       </c>
       <c r="D164" s="33" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E164" s="41" t="s">
         <v>332</v>
@@ -10502,13 +10502,13 @@
         <v>46019</v>
       </c>
       <c r="G164" s="35" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="H164" s="35" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="I164" s="40" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="J164" s="36" t="s">
         <v>60</v>
@@ -10532,14 +10532,14 @@
         <v>191</v>
       </c>
       <c r="S164" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T164" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U164" s="37"/>
       <c r="V164" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W164" s="36" t="s">
         <v>44</v>
@@ -10556,7 +10556,7 @@
         <v>38</v>
       </c>
       <c r="D165" s="33" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E165" s="41" t="s">
         <v>332</v>
@@ -10565,13 +10565,13 @@
         <v>46049</v>
       </c>
       <c r="G165" s="35" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="H165" s="35" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="I165" s="40" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="J165" s="36" t="s">
         <v>60</v>
@@ -10595,14 +10595,14 @@
         <v>191</v>
       </c>
       <c r="S165" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T165" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U165" s="37"/>
       <c r="V165" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W165" s="36" t="s">
         <v>44</v>
@@ -10619,7 +10619,7 @@
         <v>38</v>
       </c>
       <c r="D166" s="33" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E166" s="41" t="s">
         <v>332</v>
@@ -10628,13 +10628,13 @@
         <v>46019</v>
       </c>
       <c r="G166" s="35" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="H166" s="35" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="I166" s="40" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="J166" s="36" t="s">
         <v>60</v>
@@ -10658,14 +10658,14 @@
         <v>191</v>
       </c>
       <c r="S166" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T166" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U166" s="37"/>
       <c r="V166" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W166" s="36" t="s">
         <v>44</v>
@@ -10682,7 +10682,7 @@
         <v>38</v>
       </c>
       <c r="D167" s="33" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E167" s="41" t="s">
         <v>332</v>
@@ -10691,13 +10691,13 @@
         <v>46019</v>
       </c>
       <c r="G167" s="35" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="H167" s="35" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="I167" s="40" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="J167" s="36" t="s">
         <v>60</v>
@@ -10721,14 +10721,14 @@
         <v>191</v>
       </c>
       <c r="S167" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T167" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U167" s="37"/>
       <c r="V167" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W167" s="36" t="s">
         <v>44</v>
@@ -10745,7 +10745,7 @@
         <v>48</v>
       </c>
       <c r="D168" s="33" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E168" s="41" t="s">
         <v>43</v>
@@ -10754,13 +10754,13 @@
         <v>46055</v>
       </c>
       <c r="G168" s="64" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="H168" s="64" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="I168" s="61" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="J168" s="36" t="s">
         <v>60</v>
@@ -10784,7 +10784,7 @@
         <v>191</v>
       </c>
       <c r="S168" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T168" s="36" t="s">
         <v>189</v>
@@ -10806,7 +10806,7 @@
         <v>48</v>
       </c>
       <c r="D169" s="33" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E169" s="41" t="s">
         <v>53</v>
@@ -10815,13 +10815,13 @@
         <v>46055</v>
       </c>
       <c r="G169" s="64" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="H169" s="64" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="I169" s="61" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="J169" s="36" t="s">
         <v>60</v>
@@ -10845,7 +10845,7 @@
         <v>191</v>
       </c>
       <c r="S169" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T169" s="36" t="s">
         <v>189</v>
@@ -10867,7 +10867,7 @@
         <v>48</v>
       </c>
       <c r="D170" s="33" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E170" s="41" t="s">
         <v>333</v>
@@ -10876,7 +10876,7 @@
         <v>46030</v>
       </c>
       <c r="G170" s="35" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="H170" s="35"/>
       <c r="I170" s="40"/>
@@ -10902,7 +10902,7 @@
         <v>191</v>
       </c>
       <c r="S170" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T170" s="36" t="s">
         <v>189</v>
@@ -10930,16 +10930,16 @@
         <v>332</v>
       </c>
       <c r="F171" s="35">
-        <v>46017</v>
-      </c>
-      <c r="G171" s="35" t="s">
-        <v>465</v>
-      </c>
-      <c r="H171" s="35" t="s">
-        <v>351</v>
-      </c>
-      <c r="I171" s="40" t="s">
-        <v>352</v>
+        <v>46065</v>
+      </c>
+      <c r="G171" s="64" t="s">
+        <v>512</v>
+      </c>
+      <c r="H171" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="I171" s="61" t="s">
+        <v>514</v>
       </c>
       <c r="J171" s="36" t="s">
         <v>60</v>
@@ -11090,16 +11090,16 @@
         <v>332</v>
       </c>
       <c r="F175" s="35">
-        <v>46017</v>
-      </c>
-      <c r="G175" s="35" t="s">
-        <v>466</v>
-      </c>
-      <c r="H175" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="I175" s="40" t="s">
-        <v>354</v>
+        <v>46065</v>
+      </c>
+      <c r="G175" s="64" t="s">
+        <v>515</v>
+      </c>
+      <c r="H175" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="I175" s="61" t="s">
+        <v>517</v>
       </c>
       <c r="J175" s="36" t="s">
         <v>60</v>
@@ -11133,7 +11133,7 @@
         <v>48</v>
       </c>
       <c r="D176" s="33" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E176" s="41" t="s">
         <v>332</v>
@@ -11142,13 +11142,13 @@
         <v>46018</v>
       </c>
       <c r="G176" s="35" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="H176" s="35" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="I176" s="40" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="J176" s="36" t="s">
         <v>60</v>
@@ -11172,14 +11172,14 @@
         <v>191</v>
       </c>
       <c r="S176" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T176" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U176" s="37"/>
       <c r="V176" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W176" s="36" t="s">
         <v>44</v>
@@ -11196,7 +11196,7 @@
         <v>48</v>
       </c>
       <c r="D177" s="33" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E177" s="41" t="s">
         <v>332</v>
@@ -11205,13 +11205,13 @@
         <v>46049</v>
       </c>
       <c r="G177" s="35" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="H177" s="35" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="I177" s="40" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="J177" s="36" t="s">
         <v>60</v>
@@ -11235,14 +11235,14 @@
         <v>191</v>
       </c>
       <c r="S177" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T177" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U177" s="37"/>
       <c r="V177" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W177" s="36" t="s">
         <v>44</v>
@@ -11259,7 +11259,7 @@
         <v>48</v>
       </c>
       <c r="D178" s="33" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E178" s="41" t="s">
         <v>332</v>
@@ -11268,13 +11268,13 @@
         <v>46049</v>
       </c>
       <c r="G178" s="35" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="H178" s="35" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="I178" s="40" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="J178" s="36" t="s">
         <v>60</v>
@@ -11298,14 +11298,14 @@
         <v>191</v>
       </c>
       <c r="S178" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T178" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U178" s="37"/>
       <c r="V178" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W178" s="36" t="s">
         <v>44</v>
@@ -11331,13 +11331,13 @@
         <v>46049</v>
       </c>
       <c r="G179" s="35" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="H179" s="35" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="I179" s="40" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="J179" s="36" t="s">
         <v>60</v>
@@ -11361,14 +11361,14 @@
         <v>191</v>
       </c>
       <c r="S179" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T179" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U179" s="37"/>
       <c r="V179" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W179" s="36" t="s">
         <v>44</v>
@@ -11394,13 +11394,13 @@
         <v>46018</v>
       </c>
       <c r="G180" s="35" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="H180" s="35" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I180" s="40" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="J180" s="36" t="s">
         <v>60</v>
@@ -11424,14 +11424,14 @@
         <v>191</v>
       </c>
       <c r="S180" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T180" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U180" s="37"/>
       <c r="V180" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W180" s="36" t="s">
         <v>44</v>
@@ -11457,13 +11457,13 @@
         <v>46018</v>
       </c>
       <c r="G181" s="35" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="H181" s="35" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I181" s="40" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="J181" s="36" t="s">
         <v>60</v>
@@ -11487,14 +11487,14 @@
         <v>191</v>
       </c>
       <c r="S181" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T181" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U181" s="37"/>
       <c r="V181" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W181" s="36" t="s">
         <v>44</v>
@@ -11520,13 +11520,13 @@
         <v>46018</v>
       </c>
       <c r="G182" s="35" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="H182" s="35" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I182" s="40" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="J182" s="36" t="s">
         <v>60</v>
@@ -11550,14 +11550,14 @@
         <v>191</v>
       </c>
       <c r="S182" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T182" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U182" s="37"/>
       <c r="V182" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W182" s="36" t="s">
         <v>44</v>
@@ -11583,13 +11583,13 @@
         <v>46049</v>
       </c>
       <c r="G183" s="35" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="H183" s="35" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="I183" s="40" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="J183" s="36" t="s">
         <v>60</v>
@@ -11613,14 +11613,14 @@
         <v>191</v>
       </c>
       <c r="S183" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T183" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U183" s="37"/>
       <c r="V183" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W183" s="36" t="s">
         <v>44</v>
@@ -11646,13 +11646,13 @@
         <v>46018</v>
       </c>
       <c r="G184" s="35" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="H184" s="35" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I184" s="40" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="J184" s="36" t="s">
         <v>60</v>
@@ -11676,14 +11676,14 @@
         <v>191</v>
       </c>
       <c r="S184" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T184" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U184" s="37"/>
       <c r="V184" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W184" s="36" t="s">
         <v>44</v>
@@ -11709,13 +11709,13 @@
         <v>46018</v>
       </c>
       <c r="G185" s="35" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="H185" s="35" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I185" s="40" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="J185" s="36" t="s">
         <v>60</v>
@@ -11739,14 +11739,14 @@
         <v>191</v>
       </c>
       <c r="S185" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T185" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U185" s="37"/>
       <c r="V185" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W185" s="36" t="s">
         <v>44</v>
@@ -11772,13 +11772,13 @@
         <v>46018</v>
       </c>
       <c r="G186" s="35" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="H186" s="35" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I186" s="40" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="J186" s="36" t="s">
         <v>60</v>
@@ -11802,14 +11802,14 @@
         <v>191</v>
       </c>
       <c r="S186" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T186" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U186" s="37"/>
       <c r="V186" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W186" s="36" t="s">
         <v>44</v>
@@ -11835,13 +11835,13 @@
         <v>46018</v>
       </c>
       <c r="G187" s="35" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="H187" s="35" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I187" s="40" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="J187" s="36" t="s">
         <v>60</v>
@@ -11865,14 +11865,14 @@
         <v>191</v>
       </c>
       <c r="S187" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T187" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U187" s="37"/>
       <c r="V187" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W187" s="36" t="s">
         <v>44</v>
@@ -11898,13 +11898,13 @@
         <v>46018</v>
       </c>
       <c r="G188" s="35" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="H188" s="35" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I188" s="40" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="J188" s="36" t="s">
         <v>60</v>
@@ -11928,14 +11928,14 @@
         <v>191</v>
       </c>
       <c r="S188" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T188" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U188" s="37"/>
       <c r="V188" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W188" s="36" t="s">
         <v>44</v>
@@ -11961,13 +11961,13 @@
         <v>46018</v>
       </c>
       <c r="G189" s="35" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="H189" s="35" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I189" s="40" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="J189" s="36" t="s">
         <v>60</v>
@@ -11991,14 +11991,14 @@
         <v>191</v>
       </c>
       <c r="S189" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T189" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U189" s="37"/>
       <c r="V189" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W189" s="36" t="s">
         <v>44</v>
@@ -12024,13 +12024,13 @@
         <v>46018</v>
       </c>
       <c r="G190" s="35" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="H190" s="35" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I190" s="40" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="J190" s="36" t="s">
         <v>60</v>
@@ -12054,14 +12054,14 @@
         <v>191</v>
       </c>
       <c r="S190" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T190" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U190" s="37"/>
       <c r="V190" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W190" s="36" t="s">
         <v>44</v>
@@ -12087,13 +12087,13 @@
         <v>46018</v>
       </c>
       <c r="G191" s="35" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="H191" s="35" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I191" s="40" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="J191" s="36" t="s">
         <v>60</v>
@@ -12117,14 +12117,14 @@
         <v>191</v>
       </c>
       <c r="S191" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T191" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U191" s="37"/>
       <c r="V191" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W191" s="36" t="s">
         <v>44</v>
@@ -12141,7 +12141,7 @@
         <v>48</v>
       </c>
       <c r="D192" s="33" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E192" s="41" t="s">
         <v>332</v>
@@ -12150,13 +12150,13 @@
         <v>46018</v>
       </c>
       <c r="G192" s="35" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="H192" s="35" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I192" s="40" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="J192" s="36" t="s">
         <v>60</v>
@@ -12180,14 +12180,14 @@
         <v>191</v>
       </c>
       <c r="S192" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T192" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U192" s="37"/>
       <c r="V192" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W192" s="36" t="s">
         <v>44</v>
@@ -12204,7 +12204,7 @@
         <v>48</v>
       </c>
       <c r="D193" s="33" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E193" s="41" t="s">
         <v>332</v>
@@ -12213,13 +12213,13 @@
         <v>46018</v>
       </c>
       <c r="G193" s="35" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="H193" s="35" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I193" s="40" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="J193" s="36" t="s">
         <v>60</v>
@@ -12243,14 +12243,14 @@
         <v>191</v>
       </c>
       <c r="S193" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T193" s="36" t="s">
         <v>189</v>
       </c>
       <c r="U193" s="37"/>
       <c r="V193" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W193" s="36" t="s">
         <v>44</v>
@@ -15856,7 +15856,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
@@ -15987,7 +15987,7 @@
         <v>471.47199999999998</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -16001,7 +16001,7 @@
         <v>448.44900000000001</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -18012,6 +18012,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -18155,22 +18170,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18186,28 +18210,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/tarasoft/tarasoft_/45801/2.0/report-checklist.xlsx
+++ b/GATEWAY/tarasoft/tarasoft_/45801/2.0/report-checklist.xlsx
@@ -1867,15 +1867,6 @@
     <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.a0d69ef0dc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2026-02-12T16:16:31Z</t>
-  </si>
-  <si>
-    <t>8468b76c0edae9eec42e20729922ba57</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.b833fa52a5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2026-02-12T18:49:06Z</t>
   </si>
   <si>
@@ -1885,13 +1876,22 @@
     <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.12173fbf30^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2026-02-12T18:52:20Z</t>
-  </si>
-  <si>
-    <t>4ceb4e8753c849869086958006b0f6be</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.e788d7a794^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2026-02-17T07:53:43Z</t>
+  </si>
+  <si>
+    <t>ab63aaecbe991b3fb5d628d5f2ca923b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.6279c0304f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-17T07:41:17Z</t>
+  </si>
+  <si>
+    <t>c624233b4a8227444d401296fefcf58a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.a08d906dea^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -9568,16 +9568,16 @@
         <v>332</v>
       </c>
       <c r="F149" s="35">
-        <v>46065</v>
+        <v>46070</v>
       </c>
       <c r="G149" s="64" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H149" s="64" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="I149" s="61" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="J149" s="36" t="s">
         <v>60</v>
@@ -10933,13 +10933,13 @@
         <v>46065</v>
       </c>
       <c r="G171" s="64" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H171" s="64" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I171" s="61" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="J171" s="36" t="s">
         <v>60</v>
@@ -11090,7 +11090,7 @@
         <v>332</v>
       </c>
       <c r="F175" s="35">
-        <v>46065</v>
+        <v>46070</v>
       </c>
       <c r="G175" s="64" t="s">
         <v>515</v>

--- a/GATEWAY/tarasoft/tarasoft_/45801/2.0/report-checklist.xlsx
+++ b/GATEWAY/tarasoft/tarasoft_/45801/2.0/report-checklist.xlsx
@@ -1876,22 +1876,22 @@
     <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.12173fbf30^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2026-02-17T07:53:43Z</t>
-  </si>
-  <si>
-    <t>ab63aaecbe991b3fb5d628d5f2ca923b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.6279c0304f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-02-17T07:41:17Z</t>
-  </si>
-  <si>
-    <t>c624233b4a8227444d401296fefcf58a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.a08d906dea^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2026-02-23T09:40:16Z</t>
+  </si>
+  <si>
+    <t>ac2803f1765e2628aec0f5cdd361b8ca</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c22af8628943b0adb82544199d15d420c6cd8e41f8aafdecbf0c09ead259b9a3.60978a0e8a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-23T09:49:54Z</t>
+  </si>
+  <si>
+    <t>607aaed5c739223ee0d75c85f8c229b9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.910128636be06d441b232825151baa3731af884810e3dfd1cb6f9f5893fe1f42.b8b4cc315c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4020,10 +4020,10 @@
   <dimension ref="A1:W731"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G160" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A175" sqref="A175:XFD175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9568,7 +9568,7 @@
         <v>332</v>
       </c>
       <c r="F149" s="35">
-        <v>46070</v>
+        <v>46076</v>
       </c>
       <c r="G149" s="64" t="s">
         <v>512</v>
@@ -11090,7 +11090,7 @@
         <v>332</v>
       </c>
       <c r="F175" s="35">
-        <v>46070</v>
+        <v>46076</v>
       </c>
       <c r="G175" s="64" t="s">
         <v>515</v>
@@ -18012,21 +18012,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -18170,31 +18155,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18210,4 +18186,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>